--- a/Process_Design/T=820K,P=3atm.xlsx
+++ b/Process_Design/T=820K,P=3atm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>Economic Potential 2</t>
   </si>
@@ -55,6 +55,9 @@
     <t>Length(ft)</t>
   </si>
   <si>
+    <t>Fc</t>
+  </si>
+  <si>
     <t>installation_cost</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t>annual_capital_investment</t>
+  </si>
+  <si>
+    <t>reactor_volume</t>
   </si>
   <si>
     <t>catalyst_cost</t>
@@ -76,10 +82,28 @@
     <t>Reactor_Heating_Cost</t>
   </si>
   <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>TLM</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
     <t>annual_reactor_heating_cost</t>
   </si>
   <si>
     <t>Water_Cost</t>
+  </si>
+  <si>
+    <t>Reactor Q</t>
+  </si>
+  <si>
+    <t>delta_temp</t>
+  </si>
+  <si>
+    <t>price_coolingwater</t>
   </si>
   <si>
     <t>volume_flowrate</t>
@@ -91,6 +115,12 @@
     <t>Furnace_Cost</t>
   </si>
   <si>
+    <t>Furnace Heat Duty</t>
+  </si>
+  <si>
+    <t>price_fuel</t>
+  </si>
+  <si>
     <t>annual_operating_cost</t>
   </si>
   <si>
@@ -98,6 +128,15 @@
   </si>
   <si>
     <t>Pump_Cost</t>
+  </si>
+  <si>
+    <t>pressure drop</t>
+  </si>
+  <si>
+    <t>shaft work</t>
+  </si>
+  <si>
+    <t>price_electricity</t>
   </si>
   <si>
     <t>annual_pump_cost</t>
@@ -467,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB31"/>
+  <dimension ref="A1:BQ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:69">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,106 +577,151 @@
         <v>19</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>31</v>
+      <c r="BQ1" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:69">
       <c r="B2">
         <v>0.0502821651</v>
       </c>
@@ -675,112 +759,157 @@
         <v>23.45915</v>
       </c>
       <c r="O2">
+        <v>2.3625</v>
+      </c>
+      <c r="P2">
         <v>92206.63636525114</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>193265.1098215664</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>64421.70327385546</v>
       </c>
-      <c r="R2">
+      <c r="S2">
+        <v>2.870833508992452</v>
+      </c>
+      <c r="T2">
         <v>2275.279097551968</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>193161.715052589</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>257583.4183264444</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>0.0502821651</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
+        <v>113.565</v>
+      </c>
+      <c r="Z2">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA2">
+        <v>419.1132198224341</v>
+      </c>
+      <c r="AB2">
+        <v>3.7935</v>
+      </c>
+      <c r="AC2">
         <v>200628.5873906041</v>
       </c>
-      <c r="X2">
+      <c r="AD2">
         <v>419313.7476463626</v>
       </c>
-      <c r="Y2">
+      <c r="AE2">
         <v>139771.2492154542</v>
       </c>
-      <c r="Z2">
+      <c r="AF2">
         <v>139771.2492154542</v>
       </c>
-      <c r="AB2">
+      <c r="AH2">
         <v>0.0502821651</v>
       </c>
-      <c r="AC2">
+      <c r="AI2">
+        <v>-2.30791358</v>
+      </c>
+      <c r="AJ2">
+        <v>20</v>
+      </c>
+      <c r="AK2">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL2">
         <v>809019.0884204194</v>
       </c>
-      <c r="AD2">
+      <c r="AM2">
         <v>6569.234997973805</v>
       </c>
-      <c r="AF2">
+      <c r="AO2">
         <v>0.0502821651</v>
       </c>
-      <c r="AG2">
+      <c r="AP2">
+        <v>577.5238827130304</v>
+      </c>
+      <c r="AQ2">
+        <v>1.75</v>
+      </c>
+      <c r="AR2">
+        <v>23844869.54467973</v>
+      </c>
+      <c r="AS2">
+        <v>49835777.34838063</v>
+      </c>
+      <c r="AT2">
+        <v>16611925.78279354</v>
+      </c>
+      <c r="AU2">
+        <v>3.8</v>
+      </c>
+      <c r="AV2">
         <v>17885914.64762255</v>
       </c>
-      <c r="AH2">
-        <v>23844869.54467973</v>
-      </c>
-      <c r="AI2">
-        <v>49835777.34838063</v>
-      </c>
-      <c r="AJ2">
-        <v>16611925.78279354</v>
-      </c>
-      <c r="AK2">
+      <c r="AW2">
         <v>34497840.43041609</v>
       </c>
-      <c r="AM2">
+      <c r="AY2">
         <v>0.0502821651</v>
       </c>
-      <c r="AN2">
+      <c r="AZ2">
+        <v>506625</v>
+      </c>
+      <c r="BA2">
+        <v>61425.35423230849</v>
+      </c>
+      <c r="BB2">
+        <v>36288.91365829048</v>
+      </c>
+      <c r="BC2">
+        <v>75843.8295458271</v>
+      </c>
+      <c r="BD2">
+        <v>25281.2765152757</v>
+      </c>
+      <c r="BE2">
+        <v>0.035</v>
+      </c>
+      <c r="BF2">
         <v>23496.82485552635</v>
       </c>
-      <c r="AO2">
-        <v>36288.91365829048</v>
-      </c>
-      <c r="AP2">
-        <v>75843.8295458271</v>
-      </c>
-      <c r="AQ2">
-        <v>25281.2765152757</v>
-      </c>
-      <c r="AR2">
+      <c r="BG2">
         <v>48778.10137080205</v>
       </c>
-      <c r="AT2">
+      <c r="BI2">
         <v>0.0502821651</v>
       </c>
-      <c r="AU2">
+      <c r="BJ2">
         <v>0.8503138877050894</v>
       </c>
-      <c r="AV2">
+      <c r="BK2">
         <v>257583.4183264444</v>
       </c>
-      <c r="AW2">
+      <c r="BL2">
         <v>139771.2492154542</v>
       </c>
-      <c r="AX2">
+      <c r="BM2">
         <v>34497840.43041609</v>
       </c>
-      <c r="AY2">
+      <c r="BN2">
         <v>48778.10137080205</v>
       </c>
-      <c r="AZ2">
+      <c r="BO2">
         <v>6569.234997973805</v>
       </c>
-      <c r="BA2">
+      <c r="BP2">
         <v>68772910.16602886</v>
       </c>
-      <c r="BB2">
+      <c r="BQ2">
         <v>33822367.7317021</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:69">
       <c r="B3">
         <v>0.0752643294</v>
       </c>
@@ -818,112 +947,157 @@
         <v>24.4594639048</v>
       </c>
       <c r="O3">
+        <v>2.3625</v>
+      </c>
+      <c r="P3">
         <v>99686.81671163945</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>208943.5678275963</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>69647.8559425321</v>
       </c>
-      <c r="R3">
+      <c r="S3">
+        <v>3.253958369906045</v>
+      </c>
+      <c r="T3">
         <v>2578.924706069036</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>218939.9620256526</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>288587.8179681847</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>0.0752643294</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
+        <v>113.565</v>
+      </c>
+      <c r="Z3">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA3">
+        <v>434.0125844172948</v>
+      </c>
+      <c r="AB3">
+        <v>3.7935</v>
+      </c>
+      <c r="AC3">
         <v>205236.1886630581</v>
       </c>
-      <c r="X3">
+      <c r="AD3">
         <v>428943.6343057915</v>
       </c>
-      <c r="Y3">
+      <c r="AE3">
         <v>142981.2114352638</v>
       </c>
-      <c r="Z3">
+      <c r="AF3">
         <v>142981.2114352638</v>
       </c>
-      <c r="AB3">
+      <c r="AH3">
         <v>0.0752643294</v>
       </c>
-      <c r="AC3">
+      <c r="AI3">
+        <v>-2.3899593</v>
+      </c>
+      <c r="AJ3">
+        <v>20</v>
+      </c>
+      <c r="AK3">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL3">
         <v>837779.5039656138</v>
       </c>
-      <c r="AD3">
+      <c r="AM3">
         <v>6802.769572200784</v>
       </c>
-      <c r="AF3">
+      <c r="AO3">
         <v>0.0752643294</v>
       </c>
-      <c r="AG3">
+      <c r="AP3">
+        <v>402.2154687130104</v>
+      </c>
+      <c r="AQ3">
+        <v>1.75</v>
+      </c>
+      <c r="AR3">
+        <v>17532766.46626043</v>
+      </c>
+      <c r="AS3">
+        <v>36643481.91448428</v>
+      </c>
+      <c r="AT3">
+        <v>12214493.97149476</v>
+      </c>
+      <c r="AU3">
+        <v>3.8</v>
+      </c>
+      <c r="AV3">
         <v>12456613.06604193</v>
       </c>
-      <c r="AH3">
-        <v>17532766.46626043</v>
-      </c>
-      <c r="AI3">
-        <v>36643481.91448428</v>
-      </c>
-      <c r="AJ3">
-        <v>12214493.97149476</v>
-      </c>
-      <c r="AK3">
+      <c r="AW3">
         <v>24671107.0375367</v>
       </c>
-      <c r="AM3">
+      <c r="AY3">
         <v>0.0752643294</v>
       </c>
-      <c r="AN3">
+      <c r="AZ3">
+        <v>506625</v>
+      </c>
+      <c r="BA3">
+        <v>42782.71876423193</v>
+      </c>
+      <c r="BB3">
+        <v>28936.6778169257</v>
+      </c>
+      <c r="BC3">
+        <v>60477.65663737472</v>
+      </c>
+      <c r="BD3">
+        <v>20159.21887912491</v>
+      </c>
+      <c r="BE3">
+        <v>0.035</v>
+      </c>
+      <c r="BF3">
         <v>16365.52303539917</v>
       </c>
-      <c r="AO3">
-        <v>28936.6778169257</v>
-      </c>
-      <c r="AP3">
-        <v>60477.65663737472</v>
-      </c>
-      <c r="AQ3">
-        <v>20159.21887912491</v>
-      </c>
-      <c r="AR3">
+      <c r="BG3">
         <v>36524.74191452407</v>
       </c>
-      <c r="AT3">
+      <c r="BI3">
         <v>0.0752643294</v>
       </c>
-      <c r="AU3">
+      <c r="BJ3">
         <v>0.8162009259432831</v>
       </c>
-      <c r="AV3">
+      <c r="BK3">
         <v>288587.8179681847</v>
       </c>
-      <c r="AW3">
+      <c r="BL3">
         <v>142981.2114352638</v>
       </c>
-      <c r="AX3">
+      <c r="BM3">
         <v>24671107.0375367</v>
       </c>
-      <c r="AY3">
+      <c r="BN3">
         <v>36524.74191452407</v>
       </c>
-      <c r="AZ3">
+      <c r="BO3">
         <v>6802.769572200784</v>
       </c>
-      <c r="BA3">
+      <c r="BP3">
         <v>68159459.70508327</v>
       </c>
-      <c r="BB3">
+      <c r="BQ3">
         <v>43013456.1266564</v>
       </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:69">
       <c r="B4">
         <v>0.097179874</v>
       </c>
@@ -961,112 +1135,157 @@
         <v>25.50243189233</v>
       </c>
       <c r="O4">
+        <v>2.3625</v>
+      </c>
+      <c r="P4">
         <v>107773.8201605347</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>225893.9270564807</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>75297.97568549355</v>
       </c>
-      <c r="R4">
+      <c r="S4">
+        <v>3.688212873599645</v>
+      </c>
+      <c r="T4">
         <v>2923.093112971399</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>248158.4257366344</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>323456.401422128</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>0.097179874</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
+        <v>113.565</v>
+      </c>
+      <c r="Z4">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA4">
+        <v>450.3277657557302</v>
+      </c>
+      <c r="AB4">
+        <v>3.7935</v>
+      </c>
+      <c r="AC4">
         <v>210218.5822230757</v>
       </c>
-      <c r="X4">
+      <c r="AD4">
         <v>439356.8368462282</v>
       </c>
-      <c r="Y4">
+      <c r="AE4">
         <v>146452.2789487427</v>
       </c>
-      <c r="Z4">
+      <c r="AF4">
         <v>146452.2789487427</v>
       </c>
-      <c r="AB4">
+      <c r="AH4">
         <v>0.097179874</v>
       </c>
-      <c r="AC4">
+      <c r="AI4">
+        <v>-2.47980144</v>
+      </c>
+      <c r="AJ4">
+        <v>20</v>
+      </c>
+      <c r="AK4">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL4">
         <v>869272.8869217205</v>
       </c>
-      <c r="AD4">
+      <c r="AM4">
         <v>7058.495841804369</v>
       </c>
-      <c r="AF4">
+      <c r="AO4">
         <v>0.097179874</v>
       </c>
-      <c r="AG4">
+      <c r="AP4">
+        <v>325.6129194786423</v>
+      </c>
+      <c r="AQ4">
+        <v>1.75</v>
+      </c>
+      <c r="AR4">
+        <v>14650649.49908485</v>
+      </c>
+      <c r="AS4">
+        <v>30619857.45308734</v>
+      </c>
+      <c r="AT4">
+        <v>10206619.15102911</v>
+      </c>
+      <c r="AU4">
+        <v>3.8</v>
+      </c>
+      <c r="AV4">
         <v>10084232.11625355</v>
       </c>
-      <c r="AH4">
-        <v>14650649.49908485</v>
-      </c>
-      <c r="AI4">
-        <v>30619857.45308734</v>
-      </c>
-      <c r="AJ4">
-        <v>10206619.15102911</v>
-      </c>
-      <c r="AK4">
+      <c r="AW4">
         <v>20290851.26728266</v>
       </c>
-      <c r="AM4">
+      <c r="AY4">
         <v>0.097179874</v>
       </c>
-      <c r="AN4">
+      <c r="AZ4">
+        <v>506625</v>
+      </c>
+      <c r="BA4">
+        <v>34636.93976720565</v>
+      </c>
+      <c r="BB4">
+        <v>25325.88325484805</v>
+      </c>
+      <c r="BC4">
+        <v>52931.09600263242</v>
+      </c>
+      <c r="BD4">
+        <v>17643.69866754414</v>
+      </c>
+      <c r="BE4">
+        <v>0.035</v>
+      </c>
+      <c r="BF4">
         <v>13249.54682659972</v>
       </c>
-      <c r="AO4">
-        <v>25325.88325484805</v>
-      </c>
-      <c r="AP4">
-        <v>52931.09600263242</v>
-      </c>
-      <c r="AQ4">
-        <v>17643.69866754414</v>
-      </c>
-      <c r="AR4">
+      <c r="BG4">
         <v>30893.24549414386</v>
       </c>
-      <c r="AT4">
+      <c r="BI4">
         <v>0.097179874</v>
       </c>
-      <c r="AU4">
+      <c r="BJ4">
         <v>0.7813137441168384</v>
       </c>
-      <c r="AV4">
+      <c r="BK4">
         <v>323456.401422128</v>
       </c>
-      <c r="AW4">
+      <c r="BL4">
         <v>146452.2789487427</v>
       </c>
-      <c r="AX4">
+      <c r="BM4">
         <v>20290851.26728266</v>
       </c>
-      <c r="AY4">
+      <c r="BN4">
         <v>30893.24549414386</v>
       </c>
-      <c r="AZ4">
+      <c r="BO4">
         <v>7058.495841804369</v>
       </c>
-      <c r="BA4">
+      <c r="BP4">
         <v>67476953.41582151</v>
       </c>
-      <c r="BB4">
+      <c r="BQ4">
         <v>46678241.72683203</v>
       </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:69">
       <c r="B5">
         <v>0.116085055</v>
       </c>
@@ -1104,112 +1323,157 @@
         <v>26.58987271932</v>
       </c>
       <c r="O5">
+        <v>2.3625</v>
+      </c>
+      <c r="P5">
         <v>116516.8743612926</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>244219.3686612694</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>81406.45622042312</v>
       </c>
-      <c r="R5">
+      <c r="S5">
+        <v>4.180420469103583</v>
+      </c>
+      <c r="T5">
         <v>3313.192242788045</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>281276.2164450267</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>362682.6726654498</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>0.116085055</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
+        <v>113.565</v>
+      </c>
+      <c r="Z5">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA5">
+        <v>468.2910662196735</v>
+      </c>
+      <c r="AB5">
+        <v>3.7935</v>
+      </c>
+      <c r="AC5">
         <v>215631.7704666507</v>
       </c>
-      <c r="X5">
+      <c r="AD5">
         <v>450670.4002752999</v>
       </c>
-      <c r="Y5">
+      <c r="AE5">
         <v>150223.4667584333</v>
       </c>
-      <c r="Z5">
+      <c r="AF5">
         <v>150223.4667584333</v>
       </c>
-      <c r="AB5">
+      <c r="AH5">
         <v>0.116085055</v>
       </c>
-      <c r="AC5">
+      <c r="AI5">
+        <v>-2.57871921</v>
+      </c>
+      <c r="AJ5">
+        <v>20</v>
+      </c>
+      <c r="AK5">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL5">
         <v>903947.6532593668</v>
       </c>
-      <c r="AD5">
+      <c r="AM5">
         <v>7340.054944466057</v>
       </c>
-      <c r="AF5">
+      <c r="AO5">
         <v>0.116085055</v>
       </c>
-      <c r="AG5">
+      <c r="AP5">
+        <v>285.7292804021309</v>
+      </c>
+      <c r="AQ5">
+        <v>1.75</v>
+      </c>
+      <c r="AR5">
+        <v>13110583.76947361</v>
+      </c>
+      <c r="AS5">
+        <v>27401120.07819985</v>
+      </c>
+      <c r="AT5">
+        <v>9133706.692733284</v>
+      </c>
+      <c r="AU5">
+        <v>3.8</v>
+      </c>
+      <c r="AV5">
         <v>8849035.814053994</v>
       </c>
-      <c r="AH5">
-        <v>13110583.76947361</v>
-      </c>
-      <c r="AI5">
-        <v>27401120.07819985</v>
-      </c>
-      <c r="AJ5">
-        <v>9133706.692733284</v>
-      </c>
-      <c r="AK5">
+      <c r="AW5">
         <v>17982742.50678728</v>
       </c>
-      <c r="AM5">
+      <c r="AY5">
         <v>0.116085055</v>
       </c>
-      <c r="AN5">
+      <c r="AZ5">
+        <v>506625</v>
+      </c>
+      <c r="BA5">
+        <v>30396.15289368263</v>
+      </c>
+      <c r="BB5">
+        <v>23311.57730461491</v>
+      </c>
+      <c r="BC5">
+        <v>48721.19656664517</v>
+      </c>
+      <c r="BD5">
+        <v>16240.39885554839</v>
+      </c>
+      <c r="BE5">
+        <v>0.035</v>
+      </c>
+      <c r="BF5">
         <v>11627.33352946624</v>
       </c>
-      <c r="AO5">
-        <v>23311.57730461491</v>
-      </c>
-      <c r="AP5">
-        <v>48721.19656664517</v>
-      </c>
-      <c r="AQ5">
-        <v>16240.39885554839</v>
-      </c>
-      <c r="AR5">
+      <c r="BG5">
         <v>27867.73238501462</v>
       </c>
-      <c r="AT5">
+      <c r="BI5">
         <v>0.116085055</v>
       </c>
-      <c r="AU5">
+      <c r="BJ5">
         <v>0.7457944554051441</v>
       </c>
-      <c r="AV5">
+      <c r="BK5">
         <v>362682.6726654498</v>
       </c>
-      <c r="AW5">
+      <c r="BL5">
         <v>150223.4667584333</v>
       </c>
-      <c r="AX5">
+      <c r="BM5">
         <v>17982742.50678728</v>
       </c>
-      <c r="AY5">
+      <c r="BN5">
         <v>27867.73238501462</v>
       </c>
-      <c r="AZ5">
+      <c r="BO5">
         <v>7340.054944466057</v>
       </c>
-      <c r="BA5">
+      <c r="BP5">
         <v>66731349.66928331</v>
       </c>
-      <c r="BB5">
+      <c r="BQ5">
         <v>48200493.23574267</v>
       </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:69">
       <c r="B6">
         <v>0.132955024</v>
       </c>
@@ -1247,112 +1511,157 @@
         <v>27.72368273815</v>
       </c>
       <c r="O6">
+        <v>2.3625</v>
+      </c>
+      <c r="P6">
         <v>125969.2008367155</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>264031.4449537558</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>88010.48165125192</v>
       </c>
-      <c r="R6">
+      <c r="S6">
+        <v>4.738315240498488</v>
+      </c>
+      <c r="T6">
         <v>3755.351743857078</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>318813.7157545331</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>406824.197405785</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>0.132955024</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
+        <v>113.565</v>
+      </c>
+      <c r="Z6">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA6">
+        <v>488.0103679207674</v>
+      </c>
+      <c r="AB6">
+        <v>3.7935</v>
+      </c>
+      <c r="AC6">
         <v>221491.1169507658</v>
       </c>
-      <c r="X6">
+      <c r="AD6">
         <v>462916.4344271005</v>
       </c>
-      <c r="Y6">
+      <c r="AE6">
         <v>154305.4781423668</v>
       </c>
-      <c r="Z6">
+      <c r="AF6">
         <v>154305.4781423668</v>
       </c>
-      <c r="AB6">
+      <c r="AH6">
         <v>0.132955024</v>
       </c>
-      <c r="AC6">
+      <c r="AI6">
+        <v>-2.68730668</v>
+      </c>
+      <c r="AJ6">
+        <v>20</v>
+      </c>
+      <c r="AK6">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL6">
         <v>942012.0490645509</v>
       </c>
-      <c r="AD6">
+      <c r="AM6">
         <v>7649.137838404153</v>
       </c>
-      <c r="AF6">
+      <c r="AO6">
         <v>0.132955024</v>
       </c>
-      <c r="AG6">
+      <c r="AP6">
+        <v>262.1629760620735</v>
+      </c>
+      <c r="AQ6">
+        <v>1.75</v>
+      </c>
+      <c r="AR6">
+        <v>12185578.42689594</v>
+      </c>
+      <c r="AS6">
+        <v>25467858.9122125</v>
+      </c>
+      <c r="AT6">
+        <v>8489286.304070834</v>
+      </c>
+      <c r="AU6">
+        <v>3.8</v>
+      </c>
+      <c r="AV6">
         <v>8119187.368642417</v>
       </c>
-      <c r="AH6">
-        <v>12185578.42689594</v>
-      </c>
-      <c r="AI6">
-        <v>25467858.9122125</v>
-      </c>
-      <c r="AJ6">
-        <v>8489286.304070834</v>
-      </c>
-      <c r="AK6">
+      <c r="AW6">
         <v>16608473.67271325</v>
       </c>
-      <c r="AM6">
+      <c r="AY6">
         <v>0.132955024</v>
       </c>
-      <c r="AN6">
+      <c r="AZ6">
+        <v>506625</v>
+      </c>
+      <c r="BA6">
+        <v>27897.24454718082</v>
+      </c>
+      <c r="BB6">
+        <v>22071.81838851261</v>
+      </c>
+      <c r="BC6">
+        <v>46130.10043199136</v>
+      </c>
+      <c r="BD6">
+        <v>15376.70014399712</v>
+      </c>
+      <c r="BE6">
+        <v>0.035</v>
+      </c>
+      <c r="BF6">
         <v>10671.43490288766</v>
       </c>
-      <c r="AO6">
-        <v>22071.81838851261</v>
-      </c>
-      <c r="AP6">
-        <v>46130.10043199136</v>
-      </c>
-      <c r="AQ6">
-        <v>15376.70014399712</v>
-      </c>
-      <c r="AR6">
+      <c r="BG6">
         <v>26048.13504688478</v>
       </c>
-      <c r="AT6">
+      <c r="BI6">
         <v>0.132955024</v>
       </c>
-      <c r="AU6">
+      <c r="BJ6">
         <v>0.7099265507544803</v>
       </c>
-      <c r="AV6">
+      <c r="BK6">
         <v>406824.197405785</v>
       </c>
-      <c r="AW6">
+      <c r="BL6">
         <v>154305.4781423668</v>
       </c>
-      <c r="AX6">
+      <c r="BM6">
         <v>16608473.67271325</v>
       </c>
-      <c r="AY6">
+      <c r="BN6">
         <v>26048.13504688478</v>
       </c>
-      <c r="AZ6">
+      <c r="BO6">
         <v>7649.137838404153</v>
       </c>
-      <c r="BA6">
+      <c r="BP6">
         <v>65895762.36129911</v>
       </c>
-      <c r="BB6">
+      <c r="BQ6">
         <v>48692461.74015243</v>
       </c>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:69">
       <c r="B7">
         <v>0.147949717</v>
       </c>
@@ -1390,112 +1699,157 @@
         <v>28.90583921066</v>
       </c>
       <c r="O7">
+        <v>2.3625</v>
+      </c>
+      <c r="P7">
         <v>136188.3390778103</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>285450.7587070905</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>95150.25290236349</v>
       </c>
-      <c r="R7">
+      <c r="S7">
+        <v>5.37066344458743</v>
+      </c>
+      <c r="T7">
         <v>4256.519313007768</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>361360.754177222</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>456511.0070795855</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>0.147949717</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
+        <v>113.565</v>
+      </c>
+      <c r="Z7">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA7">
+        <v>509.6885978973335</v>
+      </c>
+      <c r="AB7">
+        <v>3.7935</v>
+      </c>
+      <c r="AC7">
         <v>227837.7212642959</v>
       </c>
-      <c r="X7">
+      <c r="AD7">
         <v>476180.8374423785</v>
       </c>
-      <c r="Y7">
+      <c r="AE7">
         <v>158726.9458141262</v>
       </c>
-      <c r="Z7">
+      <c r="AF7">
         <v>158726.9458141262</v>
       </c>
-      <c r="AB7">
+      <c r="AH7">
         <v>0.147949717</v>
       </c>
-      <c r="AC7">
+      <c r="AI7">
+        <v>-2.8066813</v>
+      </c>
+      <c r="AJ7">
+        <v>20</v>
+      </c>
+      <c r="AK7">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL7">
         <v>983857.7867428804</v>
       </c>
-      <c r="AD7">
+      <c r="AM7">
         <v>7988.925228352187</v>
       </c>
-      <c r="AF7">
+      <c r="AO7">
         <v>0.147949717</v>
       </c>
-      <c r="AG7">
+      <c r="AP7">
+        <v>248.2069252042178</v>
+      </c>
+      <c r="AQ7">
+        <v>1.75</v>
+      </c>
+      <c r="AR7">
+        <v>11631944.05712814</v>
+      </c>
+      <c r="AS7">
+        <v>24310763.0793978</v>
+      </c>
+      <c r="AT7">
+        <v>8103587.6931326</v>
+      </c>
+      <c r="AU7">
+        <v>3.8</v>
+      </c>
+      <c r="AV7">
         <v>7686968.473574626</v>
       </c>
-      <c r="AH7">
-        <v>11631944.05712814</v>
-      </c>
-      <c r="AI7">
-        <v>24310763.0793978</v>
-      </c>
-      <c r="AJ7">
-        <v>8103587.6931326</v>
-      </c>
-      <c r="AK7">
+      <c r="AW7">
         <v>15790556.16670723</v>
       </c>
-      <c r="AM7">
+      <c r="AY7">
         <v>0.147949717</v>
       </c>
-      <c r="AN7">
+      <c r="AZ7">
+        <v>506625</v>
+      </c>
+      <c r="BA7">
+        <v>26426.39946058963</v>
+      </c>
+      <c r="BB7">
+        <v>21321.30019944282</v>
+      </c>
+      <c r="BC7">
+        <v>44561.51741683549</v>
+      </c>
+      <c r="BD7">
+        <v>14853.83913894516</v>
+      </c>
+      <c r="BE7">
+        <v>0.035</v>
+      </c>
+      <c r="BF7">
         <v>10108.79770166715</v>
       </c>
-      <c r="AO7">
-        <v>21321.30019944282</v>
-      </c>
-      <c r="AP7">
-        <v>44561.51741683549</v>
-      </c>
-      <c r="AQ7">
-        <v>14853.83913894516</v>
-      </c>
-      <c r="AR7">
+      <c r="BG7">
         <v>24962.63684061231</v>
       </c>
-      <c r="AT7">
+      <c r="BI7">
         <v>0.147949717</v>
       </c>
-      <c r="AU7">
+      <c r="BJ7">
         <v>0.6738758049727261</v>
       </c>
-      <c r="AV7">
+      <c r="BK7">
         <v>456511.0070795855</v>
       </c>
-      <c r="AW7">
+      <c r="BL7">
         <v>158726.9458141262</v>
       </c>
-      <c r="AX7">
+      <c r="BM7">
         <v>15790556.16670723</v>
       </c>
-      <c r="AY7">
+      <c r="BN7">
         <v>24962.63684061231</v>
       </c>
-      <c r="AZ7">
+      <c r="BO7">
         <v>7988.925228352187</v>
       </c>
-      <c r="BA7">
+      <c r="BP7">
         <v>64990328.93654067</v>
       </c>
-      <c r="BB7">
+      <c r="BQ7">
         <v>48551583.25487077</v>
       </c>
     </row>
-    <row r="8" spans="1:54">
+    <row r="8" spans="1:69">
       <c r="B8">
         <v>0.161529039</v>
       </c>
@@ -1533,112 +1887,157 @@
         <v>30.13840362196</v>
       </c>
       <c r="O8">
+        <v>2.3625</v>
+      </c>
+      <c r="P8">
         <v>147236.4956539441</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>308607.6948906669</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>102869.2316302223</v>
       </c>
-      <c r="R8">
+      <c r="S8">
+        <v>6.087401185426123</v>
+      </c>
+      <c r="T8">
         <v>4824.569809509475</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>409585.8744531481</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>512455.1060833704</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>0.161529039</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
+        <v>113.565</v>
+      </c>
+      <c r="Z8">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA8">
+        <v>533.4949767242417</v>
+      </c>
+      <c r="AB8">
+        <v>3.7935</v>
+      </c>
+      <c r="AC8">
         <v>234699.4916695687</v>
       </c>
-      <c r="X8">
+      <c r="AD8">
         <v>490521.9375893985</v>
       </c>
-      <c r="Y8">
+      <c r="AE8">
         <v>163507.3125297995</v>
       </c>
-      <c r="Z8">
+      <c r="AF8">
         <v>163507.3125297995</v>
       </c>
-      <c r="AB8">
+      <c r="AH8">
         <v>0.161529039</v>
       </c>
-      <c r="AC8">
+      <c r="AI8">
+        <v>-2.93777491</v>
+      </c>
+      <c r="AJ8">
+        <v>20</v>
+      </c>
+      <c r="AK8">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL8">
         <v>1029811.514724299</v>
       </c>
-      <c r="AD8">
+      <c r="AM8">
         <v>8362.069499561305</v>
       </c>
-      <c r="AF8">
+      <c r="AO8">
         <v>0.161529039</v>
       </c>
-      <c r="AG8">
+      <c r="AP8">
+        <v>240.1710693425288</v>
+      </c>
+      <c r="AQ8">
+        <v>1.75</v>
+      </c>
+      <c r="AR8">
+        <v>11311054.17373275</v>
+      </c>
+      <c r="AS8">
+        <v>23640103.22310144</v>
+      </c>
+      <c r="AT8">
+        <v>7880034.40770048</v>
+      </c>
+      <c r="AU8">
+        <v>3.8</v>
+      </c>
+      <c r="AV8">
         <v>7438098.017538116</v>
       </c>
-      <c r="AH8">
-        <v>11311054.17373275</v>
-      </c>
-      <c r="AI8">
-        <v>23640103.22310144</v>
-      </c>
-      <c r="AJ8">
-        <v>7880034.40770048</v>
-      </c>
-      <c r="AK8">
+      <c r="AW8">
         <v>15318132.4252386</v>
       </c>
-      <c r="AM8">
+      <c r="AY8">
         <v>0.161529039</v>
       </c>
-      <c r="AN8">
+      <c r="AZ8">
+        <v>506625</v>
+      </c>
+      <c r="BA8">
+        <v>25584.922991586</v>
+      </c>
+      <c r="BB8">
+        <v>20884.40874405932</v>
+      </c>
+      <c r="BC8">
+        <v>43648.41427508398</v>
+      </c>
+      <c r="BD8">
+        <v>14549.47142502799</v>
+      </c>
+      <c r="BE8">
+        <v>0.035</v>
+      </c>
+      <c r="BF8">
         <v>9786.910665616073</v>
       </c>
-      <c r="AO8">
-        <v>20884.40874405932</v>
-      </c>
-      <c r="AP8">
-        <v>43648.41427508398</v>
-      </c>
-      <c r="AQ8">
-        <v>14549.47142502799</v>
-      </c>
-      <c r="AR8">
+      <c r="BG8">
         <v>24336.38209064407</v>
       </c>
-      <c r="AT8">
+      <c r="BI8">
         <v>0.161529039</v>
       </c>
-      <c r="AU8">
+      <c r="BJ8">
         <v>0.6378669897033323</v>
       </c>
-      <c r="AV8">
+      <c r="BK8">
         <v>512455.1060833704</v>
       </c>
-      <c r="AW8">
+      <c r="BL8">
         <v>163507.3125297995</v>
       </c>
-      <c r="AX8">
+      <c r="BM8">
         <v>15318132.4252386</v>
       </c>
-      <c r="AY8">
+      <c r="BN8">
         <v>24336.38209064407</v>
       </c>
-      <c r="AZ8">
+      <c r="BO8">
         <v>8362.069499561305</v>
       </c>
-      <c r="BA8">
+      <c r="BP8">
         <v>63989441.41173196</v>
       </c>
-      <c r="BB8">
+      <c r="BQ8">
         <v>47962648.11628999</v>
       </c>
     </row>
-    <row r="9" spans="1:54">
+    <row r="9" spans="1:69">
       <c r="B9">
         <v>0.173775848</v>
       </c>
@@ -1676,112 +2075,157 @@
         <v>31.42352538796</v>
       </c>
       <c r="O9">
+        <v>2.3625</v>
+      </c>
+      <c r="P9">
         <v>159180.9238090838</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>333643.2163038398</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>111214.4054346132</v>
       </c>
-      <c r="R9">
+      <c r="S9">
+        <v>6.899790594443828</v>
+      </c>
+      <c r="T9">
         <v>5468.429035626457</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>464246.8400037044</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>575461.2454383177</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>0.173775848</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
+        <v>113.565</v>
+      </c>
+      <c r="Z9">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA9">
+        <v>559.6998879503109</v>
+      </c>
+      <c r="AB9">
+        <v>3.7935</v>
+      </c>
+      <c r="AC9">
         <v>242129.8452630808</v>
       </c>
-      <c r="X9">
+      <c r="AD9">
         <v>506051.3765998388</v>
       </c>
-      <c r="Y9">
+      <c r="AE9">
         <v>168683.7921999463</v>
       </c>
-      <c r="Z9">
+      <c r="AF9">
         <v>168683.7921999463</v>
       </c>
-      <c r="AB9">
+      <c r="AH9">
         <v>0.173775848</v>
       </c>
-      <c r="AC9">
+      <c r="AI9">
+        <v>-3.08207642</v>
+      </c>
+      <c r="AJ9">
+        <v>20</v>
+      </c>
+      <c r="AK9">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL9">
         <v>1080395.157495659</v>
       </c>
-      <c r="AD9">
+      <c r="AM9">
         <v>8772.808678864749</v>
       </c>
-      <c r="AF9">
+      <c r="AO9">
         <v>0.173775848</v>
       </c>
-      <c r="AG9">
+      <c r="AP9">
+        <v>236.5126236659894</v>
+      </c>
+      <c r="AQ9">
+        <v>1.75</v>
+      </c>
+      <c r="AR9">
+        <v>11164432.99002142</v>
+      </c>
+      <c r="AS9">
+        <v>23333664.94914478</v>
+      </c>
+      <c r="AT9">
+        <v>7777888.316381592</v>
+      </c>
+      <c r="AU9">
+        <v>3.8</v>
+      </c>
+      <c r="AV9">
         <v>7324795.954935691</v>
       </c>
-      <c r="AH9">
-        <v>11164432.99002142</v>
-      </c>
-      <c r="AI9">
-        <v>23333664.94914478</v>
-      </c>
-      <c r="AJ9">
-        <v>7777888.316381592</v>
-      </c>
-      <c r="AK9">
+      <c r="AW9">
         <v>15102684.27131728</v>
       </c>
-      <c r="AM9">
+      <c r="AY9">
         <v>0.173775848</v>
       </c>
-      <c r="AN9">
+      <c r="AZ9">
+        <v>506625</v>
+      </c>
+      <c r="BA9">
+        <v>25209.16718848461</v>
+      </c>
+      <c r="BB9">
+        <v>20687.4647400228</v>
+      </c>
+      <c r="BC9">
+        <v>43236.80130664764</v>
+      </c>
+      <c r="BD9">
+        <v>14412.26710221588</v>
+      </c>
+      <c r="BE9">
+        <v>0.035</v>
+      </c>
+      <c r="BF9">
         <v>9643.174118969071</v>
       </c>
-      <c r="AO9">
-        <v>20687.4647400228</v>
-      </c>
-      <c r="AP9">
-        <v>43236.80130664764</v>
-      </c>
-      <c r="AQ9">
-        <v>14412.26710221588</v>
-      </c>
-      <c r="AR9">
+      <c r="BG9">
         <v>24055.44122118495</v>
       </c>
-      <c r="AT9">
+      <c r="BI9">
         <v>0.173775848</v>
       </c>
-      <c r="AU9">
+      <c r="BJ9">
         <v>0.6020519302959119</v>
       </c>
-      <c r="AV9">
+      <c r="BK9">
         <v>575461.2454383177</v>
       </c>
-      <c r="AW9">
+      <c r="BL9">
         <v>168683.7921999463</v>
       </c>
-      <c r="AX9">
+      <c r="BM9">
         <v>15102684.27131728</v>
       </c>
-      <c r="AY9">
+      <c r="BN9">
         <v>24055.44122118495</v>
       </c>
-      <c r="AZ9">
+      <c r="BO9">
         <v>8772.808678864749</v>
       </c>
-      <c r="BA9">
+      <c r="BP9">
         <v>62884748.25156308</v>
       </c>
-      <c r="BB9">
+      <c r="BQ9">
         <v>47005090.69270749</v>
       </c>
     </row>
-    <row r="10" spans="1:54">
+    <row r="10" spans="1:69">
       <c r="B10">
         <v>0.185320802</v>
       </c>
@@ -1819,112 +2263,157 @@
         <v>32.76344562852</v>
       </c>
       <c r="O10">
+        <v>2.3625</v>
+      </c>
+      <c r="P10">
         <v>172094.3331372343</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>360709.7222556432</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>120236.5740852144</v>
       </c>
-      <c r="R10">
+      <c r="S10">
+        <v>7.820596816682824</v>
+      </c>
+      <c r="T10">
         <v>6198.214007061973</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>526202.5433078654</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>646439.1173930798</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>0.185320802</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
+        <v>113.565</v>
+      </c>
+      <c r="Z10">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA10">
+        <v>588.3194429781446</v>
+      </c>
+      <c r="AB10">
+        <v>3.7935</v>
+      </c>
+      <c r="AC10">
         <v>250107.0952720536</v>
       </c>
-      <c r="X10">
+      <c r="AD10">
         <v>522723.8291185919</v>
       </c>
-      <c r="Y10">
+      <c r="AE10">
         <v>174241.276372864</v>
       </c>
-      <c r="Z10">
+      <c r="AF10">
         <v>174241.276372864</v>
       </c>
-      <c r="AB10">
+      <c r="AH10">
         <v>0.185320802</v>
       </c>
-      <c r="AC10">
+      <c r="AI10">
+        <v>-3.23967455</v>
+      </c>
+      <c r="AJ10">
+        <v>20</v>
+      </c>
+      <c r="AK10">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL10">
         <v>1135639.815083472</v>
       </c>
-      <c r="AD10">
+      <c r="AM10">
         <v>9221.395298477788</v>
       </c>
-      <c r="AF10">
+      <c r="AO10">
         <v>0.185320802</v>
       </c>
-      <c r="AG10">
+      <c r="AP10">
+        <v>235.5656741866618</v>
+      </c>
+      <c r="AQ10">
+        <v>1.75</v>
+      </c>
+      <c r="AR10">
+        <v>11126426.42031668</v>
+      </c>
+      <c r="AS10">
+        <v>23254231.21846186</v>
+      </c>
+      <c r="AT10">
+        <v>7751410.406153953</v>
+      </c>
+      <c r="AU10">
+        <v>3.8</v>
+      </c>
+      <c r="AV10">
         <v>7295468.929560916</v>
       </c>
-      <c r="AH10">
-        <v>11126426.42031668</v>
-      </c>
-      <c r="AI10">
-        <v>23254231.21846186</v>
-      </c>
-      <c r="AJ10">
-        <v>7751410.406153953</v>
-      </c>
-      <c r="AK10">
+      <c r="AW10">
         <v>15046879.33571487</v>
       </c>
-      <c r="AM10">
+      <c r="AY10">
         <v>0.185320802</v>
       </c>
-      <c r="AN10">
+      <c r="AZ10">
+        <v>506625</v>
+      </c>
+      <c r="BA10">
+        <v>25122.28158439297</v>
+      </c>
+      <c r="BB10">
+        <v>20641.75883677953</v>
+      </c>
+      <c r="BC10">
+        <v>43141.27596886921</v>
+      </c>
+      <c r="BD10">
+        <v>14380.4253229564</v>
+      </c>
+      <c r="BE10">
+        <v>0.035</v>
+      </c>
+      <c r="BF10">
         <v>9609.938074223006</v>
       </c>
-      <c r="AO10">
-        <v>20641.75883677953</v>
-      </c>
-      <c r="AP10">
-        <v>43141.27596886921</v>
-      </c>
-      <c r="AQ10">
-        <v>14380.4253229564</v>
-      </c>
-      <c r="AR10">
+      <c r="BG10">
         <v>23990.36339717941</v>
       </c>
-      <c r="AT10">
+      <c r="BI10">
         <v>0.185320802</v>
       </c>
-      <c r="AU10">
+      <c r="BJ10">
         <v>0.5667856662597892</v>
       </c>
-      <c r="AV10">
+      <c r="BK10">
         <v>646439.1173930798</v>
       </c>
-      <c r="AW10">
+      <c r="BL10">
         <v>174241.276372864</v>
       </c>
-      <c r="AX10">
+      <c r="BM10">
         <v>15046879.33571487</v>
       </c>
-      <c r="AY10">
+      <c r="BN10">
         <v>23990.36339717941</v>
       </c>
-      <c r="AZ10">
+      <c r="BO10">
         <v>9221.395298477788</v>
       </c>
-      <c r="BA10">
+      <c r="BP10">
         <v>61683263.01599378</v>
       </c>
-      <c r="BB10">
+      <c r="BQ10">
         <v>45782491.52781731</v>
       </c>
     </row>
-    <row r="11" spans="1:54">
+    <row r="11" spans="1:69">
       <c r="B11">
         <v>0.195962222</v>
       </c>
@@ -1962,112 +2451,157 @@
         <v>34.1605009406</v>
       </c>
       <c r="O11">
+        <v>2.3625</v>
+      </c>
+      <c r="P11">
         <v>186055.3309018679</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>389971.9735703151</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>129990.6578567717</v>
       </c>
-      <c r="R11">
+      <c r="S11">
+        <v>8.864288499978096</v>
+      </c>
+      <c r="T11">
         <v>7025.391850657642</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>596426.4956547894</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>726417.1535115611</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>0.195962222</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
+        <v>113.565</v>
+      </c>
+      <c r="Z11">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA11">
+        <v>619.7441816983887</v>
+      </c>
+      <c r="AB11">
+        <v>3.7935</v>
+      </c>
+      <c r="AC11">
         <v>258711.3780868545</v>
       </c>
-      <c r="X11">
+      <c r="AD11">
         <v>540706.7802015259</v>
       </c>
-      <c r="Y11">
+      <c r="AE11">
         <v>180235.5934005086</v>
       </c>
-      <c r="Z11">
+      <c r="AF11">
         <v>180235.5934005086</v>
       </c>
-      <c r="AB11">
+      <c r="AH11">
         <v>0.195962222</v>
       </c>
-      <c r="AC11">
+      <c r="AI11">
+        <v>-3.41271987</v>
+      </c>
+      <c r="AJ11">
+        <v>20</v>
+      </c>
+      <c r="AK11">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL11">
         <v>1196299.351148864</v>
       </c>
-      <c r="AD11">
+      <c r="AM11">
         <v>9713.950731328776</v>
       </c>
-      <c r="AF11">
+      <c r="AO11">
         <v>0.195962222</v>
       </c>
-      <c r="AG11">
+      <c r="AP11">
+        <v>237.2652202894943</v>
+      </c>
+      <c r="AQ11">
+        <v>1.75</v>
+      </c>
+      <c r="AR11">
+        <v>11194622.7739313</v>
+      </c>
+      <c r="AS11">
+        <v>23396761.59751642</v>
+      </c>
+      <c r="AT11">
+        <v>7798920.532505475</v>
+      </c>
+      <c r="AU11">
+        <v>3.8</v>
+      </c>
+      <c r="AV11">
         <v>7348103.87236564</v>
       </c>
-      <c r="AH11">
-        <v>11194622.7739313</v>
-      </c>
-      <c r="AI11">
-        <v>23396761.59751642</v>
-      </c>
-      <c r="AJ11">
-        <v>7798920.532505475</v>
-      </c>
-      <c r="AK11">
+      <c r="AW11">
         <v>15147024.40487111</v>
       </c>
-      <c r="AM11">
+      <c r="AY11">
         <v>0.195962222</v>
       </c>
-      <c r="AN11">
+      <c r="AZ11">
+        <v>506625</v>
+      </c>
+      <c r="BA11">
+        <v>25317.48653522127</v>
+      </c>
+      <c r="BB11">
+        <v>20744.35764721598</v>
+      </c>
+      <c r="BC11">
+        <v>43355.70748268139</v>
+      </c>
+      <c r="BD11">
+        <v>14451.90249422713</v>
+      </c>
+      <c r="BE11">
+        <v>0.035</v>
+      </c>
+      <c r="BF11">
         <v>9684.609137953423</v>
       </c>
-      <c r="AO11">
-        <v>20744.35764721598</v>
-      </c>
-      <c r="AP11">
-        <v>43355.70748268139</v>
-      </c>
-      <c r="AQ11">
-        <v>14451.90249422713</v>
-      </c>
-      <c r="AR11">
+      <c r="BG11">
         <v>24136.51163218055</v>
       </c>
-      <c r="AT11">
+      <c r="BI11">
         <v>0.195962222</v>
       </c>
-      <c r="AU11">
+      <c r="BJ11">
         <v>0.5321251967601004</v>
       </c>
-      <c r="AV11">
+      <c r="BK11">
         <v>726417.1535115611</v>
       </c>
-      <c r="AW11">
+      <c r="BL11">
         <v>180235.5934005086</v>
       </c>
-      <c r="AX11">
+      <c r="BM11">
         <v>15147024.40487111</v>
       </c>
-      <c r="AY11">
+      <c r="BN11">
         <v>24136.51163218055</v>
       </c>
-      <c r="AZ11">
+      <c r="BO11">
         <v>9713.950731328776</v>
       </c>
-      <c r="BA11">
+      <c r="BP11">
         <v>60355803.31622796</v>
       </c>
-      <c r="BB11">
+      <c r="BQ11">
         <v>44268275.70208126</v>
       </c>
     </row>
-    <row r="12" spans="1:54">
+    <row r="12" spans="1:69">
       <c r="B12">
         <v>0.206109373</v>
       </c>
@@ -2105,112 +2639,157 @@
         <v>35.61712779480001</v>
       </c>
       <c r="O12">
+        <v>2.3625</v>
+      </c>
+      <c r="P12">
         <v>201148.9037854508</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>421608.102334305</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>140536.034111435</v>
       </c>
-      <c r="R12">
+      <c r="S12">
+        <v>10.04726538790133</v>
+      </c>
+      <c r="T12">
         <v>7962.960183181201</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>676022.1405513206</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>816558.1746627556</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>0.206109373</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
+        <v>113.565</v>
+      </c>
+      <c r="Z12">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA12">
+        <v>654.0967102141556</v>
+      </c>
+      <c r="AB12">
+        <v>3.7935</v>
+      </c>
+      <c r="AC12">
         <v>267944.4147335727</v>
       </c>
-      <c r="X12">
+      <c r="AD12">
         <v>560003.826793167</v>
       </c>
-      <c r="Y12">
+      <c r="AE12">
         <v>186667.942264389</v>
       </c>
-      <c r="Z12">
+      <c r="AF12">
         <v>186667.942264389</v>
       </c>
-      <c r="AB12">
+      <c r="AH12">
         <v>0.206109373</v>
       </c>
-      <c r="AC12">
+      <c r="AI12">
+        <v>-3.60188753</v>
+      </c>
+      <c r="AJ12">
+        <v>20</v>
+      </c>
+      <c r="AK12">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL12">
         <v>1262610.433668611</v>
       </c>
-      <c r="AD12">
+      <c r="AM12">
         <v>10252.39672138912</v>
       </c>
-      <c r="AF12">
+      <c r="AO12">
         <v>0.206109373</v>
       </c>
-      <c r="AG12">
+      <c r="AP12">
+        <v>240.8664699424637</v>
+      </c>
+      <c r="AQ12">
+        <v>1.75</v>
+      </c>
+      <c r="AR12">
+        <v>11338886.02925231</v>
+      </c>
+      <c r="AS12">
+        <v>23698271.80113732</v>
+      </c>
+      <c r="AT12">
+        <v>7899423.933712439</v>
+      </c>
+      <c r="AU12">
+        <v>3.8</v>
+      </c>
+      <c r="AV12">
         <v>7459634.5741181</v>
       </c>
-      <c r="AH12">
-        <v>11338886.02925231</v>
-      </c>
-      <c r="AI12">
-        <v>23698271.80113732</v>
-      </c>
-      <c r="AJ12">
-        <v>7899423.933712439</v>
-      </c>
-      <c r="AK12">
+      <c r="AW12">
         <v>15359058.50783054</v>
       </c>
-      <c r="AM12">
+      <c r="AY12">
         <v>0.206109373</v>
       </c>
-      <c r="AN12">
+      <c r="AZ12">
+        <v>506625</v>
+      </c>
+      <c r="BA12">
+        <v>25715.76580108592</v>
+      </c>
+      <c r="BB12">
+        <v>20952.71507671311</v>
+      </c>
+      <c r="BC12">
+        <v>43791.17451033041</v>
+      </c>
+      <c r="BD12">
+        <v>14597.05817011013</v>
+      </c>
+      <c r="BE12">
+        <v>0.035</v>
+      </c>
+      <c r="BF12">
         <v>9836.961505645379</v>
       </c>
-      <c r="AO12">
-        <v>20952.71507671311</v>
-      </c>
-      <c r="AP12">
-        <v>43791.17451033041</v>
-      </c>
-      <c r="AQ12">
-        <v>14597.05817011013</v>
-      </c>
-      <c r="AR12">
+      <c r="BG12">
         <v>24434.01967575551</v>
       </c>
-      <c r="AT12">
+      <c r="BI12">
         <v>0.206109373</v>
       </c>
-      <c r="AU12">
+      <c r="BJ12">
         <v>0.4983252053787994</v>
       </c>
-      <c r="AV12">
+      <c r="BK12">
         <v>816558.1746627556</v>
       </c>
-      <c r="AW12">
+      <c r="BL12">
         <v>186667.942264389</v>
       </c>
-      <c r="AX12">
+      <c r="BM12">
         <v>15359058.50783054</v>
       </c>
-      <c r="AY12">
+      <c r="BN12">
         <v>24434.01967575551</v>
       </c>
-      <c r="AZ12">
+      <c r="BO12">
         <v>10252.39672138912</v>
       </c>
-      <c r="BA12">
+      <c r="BP12">
         <v>58901526.32325053</v>
       </c>
-      <c r="BB12">
+      <c r="BQ12">
         <v>42504555.28209572</v>
       </c>
     </row>
-    <row r="13" spans="1:54">
+    <row r="13" spans="1:69">
       <c r="B13">
         <v>0.215860049</v>
       </c>
@@ -2248,112 +2827,157 @@
         <v>37.1358659476</v>
       </c>
       <c r="O13">
+        <v>2.3625</v>
+      </c>
+      <c r="P13">
         <v>217466.9265241862</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>455810.6779946944</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>151936.8926648981</v>
       </c>
-      <c r="R13">
+      <c r="S13">
+        <v>11.38811532295319</v>
+      </c>
+      <c r="T13">
         <v>9025.650799206551</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>766240.145974306</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>918177.0386392041</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>0.215860049</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
+        <v>113.565</v>
+      </c>
+      <c r="Z13">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA13">
+        <v>691.6353357862426</v>
+      </c>
+      <c r="AB13">
+        <v>3.7935</v>
+      </c>
+      <c r="AC13">
         <v>277841.8065910228</v>
       </c>
-      <c r="X13">
+      <c r="AD13">
         <v>580689.3757752377</v>
       </c>
-      <c r="Y13">
+      <c r="AE13">
         <v>193563.1252584126</v>
       </c>
-      <c r="Z13">
+      <c r="AF13">
         <v>193563.1252584126</v>
       </c>
-      <c r="AB13">
+      <c r="AH13">
         <v>0.215860049</v>
       </c>
-      <c r="AC13">
+      <c r="AI13">
+        <v>-3.80859994</v>
+      </c>
+      <c r="AJ13">
+        <v>20</v>
+      </c>
+      <c r="AK13">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL13">
         <v>1335071.676131332</v>
       </c>
-      <c r="AD13">
+      <c r="AM13">
         <v>10840.78201018642</v>
       </c>
-      <c r="AF13">
+      <c r="AO13">
         <v>0.215860049</v>
       </c>
-      <c r="AG13">
+      <c r="AP13">
+        <v>246.1710299728786</v>
+      </c>
+      <c r="AQ13">
+        <v>1.75</v>
+      </c>
+      <c r="AR13">
+        <v>11550795.52061905</v>
+      </c>
+      <c r="AS13">
+        <v>24141162.63809382</v>
+      </c>
+      <c r="AT13">
+        <v>8047054.21269794</v>
+      </c>
+      <c r="AU13">
+        <v>3.8</v>
+      </c>
+      <c r="AV13">
         <v>7623916.798260052</v>
       </c>
-      <c r="AH13">
-        <v>11550795.52061905</v>
-      </c>
-      <c r="AI13">
-        <v>24141162.63809382</v>
-      </c>
-      <c r="AJ13">
-        <v>8047054.21269794</v>
-      </c>
-      <c r="AK13">
+      <c r="AW13">
         <v>15670971.01095799</v>
       </c>
-      <c r="AM13">
+      <c r="AY13">
         <v>0.215860049</v>
       </c>
-      <c r="AN13">
+      <c r="AZ13">
+        <v>506625</v>
+      </c>
+      <c r="BA13">
+        <v>26296.163966104</v>
+      </c>
+      <c r="BB13">
+        <v>21254.05037944189</v>
+      </c>
+      <c r="BC13">
+        <v>44420.96529303354</v>
+      </c>
+      <c r="BD13">
+        <v>14806.98843101118</v>
+      </c>
+      <c r="BE13">
+        <v>0.035</v>
+      </c>
+      <c r="BF13">
         <v>10058.97917571566</v>
       </c>
-      <c r="AO13">
-        <v>21254.05037944189</v>
-      </c>
-      <c r="AP13">
-        <v>44420.96529303354</v>
-      </c>
-      <c r="AQ13">
-        <v>14806.98843101118</v>
-      </c>
-      <c r="AR13">
+      <c r="BG13">
         <v>24865.96760672684</v>
       </c>
-      <c r="AT13">
+      <c r="BI13">
         <v>0.215860049</v>
       </c>
-      <c r="AU13">
+      <c r="BJ13">
         <v>0.4655287209740786</v>
       </c>
-      <c r="AV13">
+      <c r="BK13">
         <v>918177.0386392041</v>
       </c>
-      <c r="AW13">
+      <c r="BL13">
         <v>193563.1252584126</v>
       </c>
-      <c r="AX13">
+      <c r="BM13">
         <v>15670971.01095799</v>
       </c>
-      <c r="AY13">
+      <c r="BN13">
         <v>24865.96760672684</v>
       </c>
-      <c r="AZ13">
+      <c r="BO13">
         <v>10840.78201018642</v>
       </c>
-      <c r="BA13">
+      <c r="BP13">
         <v>57321655.98196222</v>
       </c>
-      <c r="BB13">
+      <c r="BQ13">
         <v>40503238.0574897</v>
       </c>
     </row>
-    <row r="14" spans="1:54">
+    <row r="14" spans="1:69">
       <c r="B14">
         <v>0.225333757</v>
       </c>
@@ -2391,112 +3015,157 @@
         <v>38.7193641503</v>
       </c>
       <c r="O14">
+        <v>2.3625</v>
+      </c>
+      <c r="P14">
         <v>235108.7345311949</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>492787.9075773845</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>164262.6358591281</v>
       </c>
-      <c r="R14">
+      <c r="S14">
+        <v>12.90790737537782</v>
+      </c>
+      <c r="T14">
         <v>10230.16199035569</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>868498.1273062386</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>1032760.763165367</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>0.225333757</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
+        <v>113.565</v>
+      </c>
+      <c r="Z14">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA14">
+        <v>732.57728995233</v>
+      </c>
+      <c r="AB14">
+        <v>3.7935</v>
+      </c>
+      <c r="AC14">
         <v>288424.5175580563</v>
       </c>
-      <c r="X14">
+      <c r="AD14">
         <v>602807.2416963376</v>
       </c>
-      <c r="Y14">
+      <c r="AE14">
         <v>200935.7472321125</v>
       </c>
-      <c r="Z14">
+      <c r="AF14">
         <v>200935.7472321125</v>
       </c>
-      <c r="AB14">
+      <c r="AH14">
         <v>0.225333757</v>
       </c>
-      <c r="AC14">
+      <c r="AI14">
+        <v>-4.03405332</v>
+      </c>
+      <c r="AJ14">
+        <v>20</v>
+      </c>
+      <c r="AK14">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL14">
         <v>1414102.403082947</v>
       </c>
-      <c r="AD14">
+      <c r="AM14">
         <v>11482.51151303353</v>
       </c>
-      <c r="AF14">
+      <c r="AO14">
         <v>0.225333757</v>
       </c>
-      <c r="AG14">
+      <c r="AP14">
+        <v>253.007269317045</v>
+      </c>
+      <c r="AQ14">
+        <v>1.75</v>
+      </c>
+      <c r="AR14">
+        <v>11822887.14056757</v>
+      </c>
+      <c r="AS14">
+        <v>24709834.12378621</v>
+      </c>
+      <c r="AT14">
+        <v>8236611.374595405</v>
+      </c>
+      <c r="AU14">
+        <v>3.8</v>
+      </c>
+      <c r="AV14">
         <v>7835635.130748885</v>
       </c>
-      <c r="AH14">
-        <v>11822887.14056757</v>
-      </c>
-      <c r="AI14">
-        <v>24709834.12378621</v>
-      </c>
-      <c r="AJ14">
-        <v>8236611.374595405</v>
-      </c>
-      <c r="AK14">
+      <c r="AW14">
         <v>16072246.50534429</v>
       </c>
-      <c r="AM14">
+      <c r="AY14">
         <v>0.225333757</v>
       </c>
-      <c r="AN14">
+      <c r="AZ14">
+        <v>506625</v>
+      </c>
+      <c r="BA14">
+        <v>27040.54519269691</v>
+      </c>
+      <c r="BB14">
+        <v>21636.65740770113</v>
+      </c>
+      <c r="BC14">
+        <v>45220.61398209536</v>
+      </c>
+      <c r="BD14">
+        <v>15073.53799403179</v>
+      </c>
+      <c r="BE14">
+        <v>0.035</v>
+      </c>
+      <c r="BF14">
         <v>10343.72470995949</v>
       </c>
-      <c r="AO14">
-        <v>21636.65740770113</v>
-      </c>
-      <c r="AP14">
-        <v>45220.61398209536</v>
-      </c>
-      <c r="AQ14">
-        <v>15073.53799403179</v>
-      </c>
-      <c r="AR14">
+      <c r="BG14">
         <v>25417.26270399128</v>
       </c>
-      <c r="AT14">
+      <c r="BI14">
         <v>0.225333757</v>
       </c>
-      <c r="AU14">
+      <c r="BJ14">
         <v>0.4338874198944919</v>
       </c>
-      <c r="AV14">
+      <c r="BK14">
         <v>1032760.763165367</v>
       </c>
-      <c r="AW14">
+      <c r="BL14">
         <v>200935.7472321125</v>
       </c>
-      <c r="AX14">
+      <c r="BM14">
         <v>16072246.50534429</v>
       </c>
-      <c r="AY14">
+      <c r="BN14">
         <v>25417.26270399128</v>
       </c>
-      <c r="AZ14">
+      <c r="BO14">
         <v>11482.51151303353</v>
       </c>
-      <c r="BA14">
+      <c r="BP14">
         <v>55584751.63347615</v>
       </c>
-      <c r="BB14">
+      <c r="BQ14">
         <v>38241908.84351735</v>
       </c>
     </row>
-    <row r="15" spans="1:54">
+    <row r="15" spans="1:69">
       <c r="B15">
         <v>0.234649297</v>
       </c>
@@ -2534,112 +3203,157 @@
         <v>40.3703840206</v>
       </c>
       <c r="O15">
+        <v>2.3625</v>
+      </c>
+      <c r="P15">
         <v>254181.7211420439</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>532764.8875137239</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>177588.295837908</v>
       </c>
-      <c r="R15">
+      <c r="S15">
+        <v>14.63052235597405</v>
+      </c>
+      <c r="T15">
         <v>11595.42049322723</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>984402.8856229369</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>1161991.181460845</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>0.234649297</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
+        <v>113.565</v>
+      </c>
+      <c r="Z15">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA15">
+        <v>777.2195404387292</v>
+      </c>
+      <c r="AB15">
+        <v>3.7935</v>
+      </c>
+      <c r="AC15">
         <v>299730.4347153308</v>
       </c>
-      <c r="X15">
+      <c r="AD15">
         <v>626436.6085550414</v>
       </c>
-      <c r="Y15">
+      <c r="AE15">
         <v>208812.2028516805</v>
       </c>
-      <c r="Z15">
+      <c r="AF15">
         <v>208812.2028516805</v>
       </c>
-      <c r="AB15">
+      <c r="AH15">
         <v>0.234649297</v>
       </c>
-      <c r="AC15">
+      <c r="AI15">
+        <v>-4.27988297</v>
+      </c>
+      <c r="AJ15">
+        <v>20</v>
+      </c>
+      <c r="AK15">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL15">
         <v>1500275.854755132</v>
       </c>
-      <c r="AD15">
+      <c r="AM15">
         <v>12182.23994061167</v>
       </c>
-      <c r="AF15">
+      <c r="AO15">
         <v>0.234649297</v>
       </c>
-      <c r="AG15">
+      <c r="AP15">
+        <v>261.2500603067068</v>
+      </c>
+      <c r="AQ15">
+        <v>1.75</v>
+      </c>
+      <c r="AR15">
+        <v>12149500.79861825</v>
+      </c>
+      <c r="AS15">
+        <v>25392456.66911214</v>
+      </c>
+      <c r="AT15">
+        <v>8464152.223037381</v>
+      </c>
+      <c r="AU15">
+        <v>3.8</v>
+      </c>
+      <c r="AV15">
         <v>8090914.367698709</v>
       </c>
-      <c r="AH15">
-        <v>12149500.79861825</v>
-      </c>
-      <c r="AI15">
-        <v>25392456.66911214</v>
-      </c>
-      <c r="AJ15">
-        <v>8464152.223037381</v>
-      </c>
-      <c r="AK15">
+      <c r="AW15">
         <v>16555066.59073609</v>
       </c>
-      <c r="AM15">
+      <c r="AY15">
         <v>0.234649297</v>
       </c>
-      <c r="AN15">
+      <c r="AZ15">
+        <v>506625</v>
+      </c>
+      <c r="BA15">
+        <v>27935.66430736276</v>
+      </c>
+      <c r="BB15">
+        <v>22091.20753490445</v>
+      </c>
+      <c r="BC15">
+        <v>46170.6237479503</v>
+      </c>
+      <c r="BD15">
+        <v>15390.20791598343</v>
+      </c>
+      <c r="BE15">
+        <v>0.035</v>
+      </c>
+      <c r="BF15">
         <v>10686.13147871158</v>
       </c>
-      <c r="AO15">
-        <v>22091.20753490445</v>
-      </c>
-      <c r="AP15">
-        <v>46170.6237479503</v>
-      </c>
-      <c r="AQ15">
-        <v>15390.20791598343</v>
-      </c>
-      <c r="AR15">
+      <c r="BG15">
         <v>26076.33939469502</v>
       </c>
-      <c r="AT15">
+      <c r="BI15">
         <v>0.234649297</v>
       </c>
-      <c r="AU15">
+      <c r="BJ15">
         <v>0.4034957658015084</v>
       </c>
-      <c r="AV15">
+      <c r="BK15">
         <v>1161991.181460845</v>
       </c>
-      <c r="AW15">
+      <c r="BL15">
         <v>208812.2028516805</v>
       </c>
-      <c r="AX15">
+      <c r="BM15">
         <v>16555066.59073609</v>
       </c>
-      <c r="AY15">
+      <c r="BN15">
         <v>26076.33939469502</v>
       </c>
-      <c r="AZ15">
+      <c r="BO15">
         <v>12182.23994061167</v>
       </c>
-      <c r="BA15">
+      <c r="BP15">
         <v>53690261.37571226</v>
       </c>
-      <c r="BB15">
+      <c r="BQ15">
         <v>35726132.82132833</v>
       </c>
     </row>
-    <row r="16" spans="1:54">
+    <row r="16" spans="1:69">
       <c r="B16">
         <v>0.243888851</v>
       </c>
@@ -2677,112 +3391,157 @@
         <v>42.09180430790001</v>
       </c>
       <c r="O16">
+        <v>2.3625</v>
+      </c>
+      <c r="P16">
         <v>274801.9845207495</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>575984.959555491</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>191994.986518497</v>
       </c>
-      <c r="R16">
+      <c r="S16">
+        <v>16.58302739049977</v>
+      </c>
+      <c r="T16">
         <v>13142.87835834059</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>1115775.610629956</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>1307770.597148453</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>0.243888851</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
+        <v>113.565</v>
+      </c>
+      <c r="Z16">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA16">
+        <v>825.8132359006171</v>
+      </c>
+      <c r="AB16">
+        <v>3.7935</v>
+      </c>
+      <c r="AC16">
         <v>311781.7045656244</v>
       </c>
-      <c r="X16">
+      <c r="AD16">
         <v>651623.7625421549</v>
       </c>
-      <c r="Y16">
+      <c r="AE16">
         <v>217207.920847385</v>
       </c>
-      <c r="Z16">
+      <c r="AF16">
         <v>217207.920847385</v>
       </c>
-      <c r="AB16">
+      <c r="AH16">
         <v>0.243888851</v>
       </c>
-      <c r="AC16">
+      <c r="AI16">
+        <v>-4.54747188</v>
+      </c>
+      <c r="AJ16">
+        <v>20</v>
+      </c>
+      <c r="AK16">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL16">
         <v>1594076.826297409</v>
       </c>
-      <c r="AD16">
+      <c r="AM16">
         <v>12943.90382953496</v>
       </c>
-      <c r="AF16">
+      <c r="AO16">
         <v>0.243888851</v>
       </c>
-      <c r="AG16">
+      <c r="AP16">
+        <v>270.8381041592341</v>
+      </c>
+      <c r="AQ16">
+        <v>1.75</v>
+      </c>
+      <c r="AR16">
+        <v>12527482.21326824</v>
+      </c>
+      <c r="AS16">
+        <v>26182437.82573062</v>
+      </c>
+      <c r="AT16">
+        <v>8727479.275243539</v>
+      </c>
+      <c r="AU16">
+        <v>3.8</v>
+      </c>
+      <c r="AV16">
         <v>8387856.08581148</v>
       </c>
-      <c r="AH16">
-        <v>12527482.21326824</v>
-      </c>
-      <c r="AI16">
-        <v>26182437.82573062</v>
-      </c>
-      <c r="AJ16">
-        <v>8727479.275243539</v>
-      </c>
-      <c r="AK16">
+      <c r="AW16">
         <v>17115335.36105502</v>
       </c>
-      <c r="AM16">
+      <c r="AY16">
         <v>0.243888851</v>
       </c>
-      <c r="AN16">
+      <c r="AZ16">
+        <v>506625</v>
+      </c>
+      <c r="BA16">
+        <v>28975.12735607198</v>
+      </c>
+      <c r="BB16">
+        <v>22611.80835912527</v>
+      </c>
+      <c r="BC16">
+        <v>47258.6794705718</v>
+      </c>
+      <c r="BD16">
+        <v>15752.89315685727</v>
+      </c>
+      <c r="BE16">
+        <v>0.035</v>
+      </c>
+      <c r="BF16">
         <v>11083.75362521058</v>
       </c>
-      <c r="AO16">
-        <v>22611.80835912527</v>
-      </c>
-      <c r="AP16">
-        <v>47258.6794705718</v>
-      </c>
-      <c r="AQ16">
-        <v>15752.89315685727</v>
-      </c>
-      <c r="AR16">
+      <c r="BG16">
         <v>26836.64678206785</v>
       </c>
-      <c r="AT16">
+      <c r="BI16">
         <v>0.243888851</v>
       </c>
-      <c r="AU16">
+      <c r="BJ16">
         <v>0.3744529096372704</v>
       </c>
-      <c r="AV16">
+      <c r="BK16">
         <v>1307770.597148453</v>
       </c>
-      <c r="AW16">
+      <c r="BL16">
         <v>217207.920847385</v>
       </c>
-      <c r="AX16">
+      <c r="BM16">
         <v>17115335.36105502</v>
       </c>
-      <c r="AY16">
+      <c r="BN16">
         <v>26836.64678206785</v>
       </c>
-      <c r="AZ16">
+      <c r="BO16">
         <v>12943.90382953496</v>
       </c>
-      <c r="BA16">
+      <c r="BP16">
         <v>51626277.13253023</v>
       </c>
-      <c r="BB16">
+      <c r="BQ16">
         <v>32946182.70286776</v>
       </c>
     </row>
-    <row r="17" spans="2:54">
+    <row r="17" spans="2:69">
       <c r="B17">
         <v>0.253122153</v>
       </c>
@@ -2820,112 +3579,157 @@
         <v>43.8866271272</v>
       </c>
       <c r="O17">
+        <v>2.3625</v>
+      </c>
+      <c r="P17">
         <v>297095.0483967554</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>622711.2214395994</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>207570.4071465331</v>
       </c>
-      <c r="R17">
+      <c r="S17">
+        <v>18.79610249191696</v>
+      </c>
+      <c r="T17">
         <v>14896.85102996879</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>1264680.582231725</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>1472250.989378258</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>0.253122153</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
+        <v>113.565</v>
+      </c>
+      <c r="Z17">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA17">
+        <v>878.6431787931099</v>
+      </c>
+      <c r="AB17">
+        <v>3.7935</v>
+      </c>
+      <c r="AC17">
         <v>324605.282945862</v>
       </c>
-      <c r="X17">
+      <c r="AD17">
         <v>678425.0413568515</v>
       </c>
-      <c r="Y17">
+      <c r="AE17">
         <v>226141.6804522838</v>
       </c>
-      <c r="Z17">
+      <c r="AF17">
         <v>226141.6804522838</v>
       </c>
-      <c r="AB17">
+      <c r="AH17">
         <v>0.253122153</v>
       </c>
-      <c r="AC17">
+      <c r="AI17">
+        <v>-4.83838836</v>
+      </c>
+      <c r="AJ17">
+        <v>20</v>
+      </c>
+      <c r="AK17">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL17">
         <v>1696055.075177974</v>
       </c>
-      <c r="AD17">
+      <c r="AM17">
         <v>13771.96721044515</v>
       </c>
-      <c r="AF17">
+      <c r="AO17">
         <v>0.253122153</v>
       </c>
-      <c r="AG17">
+      <c r="AP17">
+        <v>281.7409877741178</v>
+      </c>
+      <c r="AQ17">
+        <v>1.75</v>
+      </c>
+      <c r="AR17">
+        <v>12954868.90030762</v>
+      </c>
+      <c r="AS17">
+        <v>27075676.00164293</v>
+      </c>
+      <c r="AT17">
+        <v>9025225.333880976</v>
+      </c>
+      <c r="AU17">
+        <v>3.8</v>
+      </c>
+      <c r="AV17">
         <v>8725518.391364427</v>
       </c>
-      <c r="AH17">
-        <v>12954868.90030762</v>
-      </c>
-      <c r="AI17">
-        <v>27075676.00164293</v>
-      </c>
-      <c r="AJ17">
-        <v>9025225.333880976</v>
-      </c>
-      <c r="AK17">
+      <c r="AW17">
         <v>17750743.7252454</v>
       </c>
-      <c r="AM17">
+      <c r="AY17">
         <v>0.253122153</v>
       </c>
-      <c r="AN17">
+      <c r="AZ17">
+        <v>506625</v>
+      </c>
+      <c r="BA17">
+        <v>30155.78482507679</v>
+      </c>
+      <c r="BB17">
+        <v>23194.14534255693</v>
+      </c>
+      <c r="BC17">
+        <v>48475.76376594397</v>
+      </c>
+      <c r="BD17">
+        <v>16158.58792198132</v>
+      </c>
+      <c r="BE17">
+        <v>0.035</v>
+      </c>
+      <c r="BF17">
         <v>11535.38637703252</v>
       </c>
-      <c r="AO17">
-        <v>23194.14534255693</v>
-      </c>
-      <c r="AP17">
-        <v>48475.76376594397</v>
-      </c>
-      <c r="AQ17">
-        <v>16158.58792198132</v>
-      </c>
-      <c r="AR17">
+      <c r="BG17">
         <v>27693.97429901385</v>
       </c>
-      <c r="AT17">
+      <c r="BI17">
         <v>0.253122153</v>
       </c>
-      <c r="AU17">
+      <c r="BJ17">
         <v>0.3468238722529364</v>
       </c>
-      <c r="AV17">
+      <c r="BK17">
         <v>1472250.989378258</v>
       </c>
-      <c r="AW17">
+      <c r="BL17">
         <v>226141.6804522838</v>
       </c>
-      <c r="AX17">
+      <c r="BM17">
         <v>17750743.7252454</v>
       </c>
-      <c r="AY17">
+      <c r="BN17">
         <v>27693.97429901385</v>
       </c>
-      <c r="AZ17">
+      <c r="BO17">
         <v>13771.96721044515</v>
       </c>
-      <c r="BA17">
+      <c r="BP17">
         <v>49375633.45093572</v>
       </c>
-      <c r="BB17">
+      <c r="BQ17">
         <v>29885031.11435032</v>
       </c>
     </row>
-    <row r="18" spans="2:54">
+    <row r="18" spans="2:69">
       <c r="B18">
         <v>0.262406124</v>
       </c>
@@ -2963,112 +3767,157 @@
         <v>45.7579822244</v>
       </c>
       <c r="O18">
+        <v>2.3625</v>
+      </c>
+      <c r="P18">
         <v>321196.6147620893</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>673228.1045413391</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>224409.3681804464</v>
       </c>
-      <c r="R18">
+      <c r="S18">
+        <v>21.30452157839903</v>
+      </c>
+      <c r="T18">
         <v>16884.89857696015</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>1433457.535439846</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>1657866.903620292</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>0.262406124</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
+        <v>113.565</v>
+      </c>
+      <c r="Z18">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA18">
+        <v>936.0023925270934</v>
+      </c>
+      <c r="AB18">
+        <v>3.7935</v>
+      </c>
+      <c r="AC18">
         <v>338226.3623489991</v>
       </c>
-      <c r="X18">
+      <c r="AD18">
         <v>706893.0973094081</v>
       </c>
-      <c r="Y18">
+      <c r="AE18">
         <v>235631.0324364694</v>
       </c>
-      <c r="Z18">
+      <c r="AF18">
         <v>235631.0324364694</v>
       </c>
-      <c r="AB18">
+      <c r="AH18">
         <v>0.262406124</v>
       </c>
-      <c r="AC18">
+      <c r="AI18">
+        <v>-5.15424599</v>
+      </c>
+      <c r="AJ18">
+        <v>20</v>
+      </c>
+      <c r="AK18">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL18">
         <v>1806776.22787089</v>
       </c>
-      <c r="AD18">
+      <c r="AM18">
         <v>14671.02297031162</v>
       </c>
-      <c r="AF18">
+      <c r="AO18">
         <v>0.262406124</v>
       </c>
-      <c r="AG18">
+      <c r="AP18">
+        <v>293.9536963268483</v>
+      </c>
+      <c r="AQ18">
+        <v>1.75</v>
+      </c>
+      <c r="AR18">
+        <v>13430666.99608296</v>
+      </c>
+      <c r="AS18">
+        <v>28070094.02181338</v>
+      </c>
+      <c r="AT18">
+        <v>9356698.007271126</v>
+      </c>
+      <c r="AU18">
+        <v>3.8</v>
+      </c>
+      <c r="AV18">
         <v>9103745.975242494</v>
       </c>
-      <c r="AH18">
-        <v>13430666.99608296</v>
-      </c>
-      <c r="AI18">
-        <v>28070094.02181338</v>
-      </c>
-      <c r="AJ18">
-        <v>9356698.007271126</v>
-      </c>
-      <c r="AK18">
+      <c r="AW18">
         <v>18460443.98251362</v>
       </c>
-      <c r="AM18">
+      <c r="AY18">
         <v>0.262406124</v>
       </c>
-      <c r="AN18">
+      <c r="AZ18">
+        <v>506625</v>
+      </c>
+      <c r="BA18">
+        <v>31477.20100361545</v>
+      </c>
+      <c r="BB18">
+        <v>23835.19709993254</v>
+      </c>
+      <c r="BC18">
+        <v>49815.56193885901</v>
+      </c>
+      <c r="BD18">
+        <v>16605.187312953</v>
+      </c>
+      <c r="BE18">
+        <v>0.035</v>
+      </c>
+      <c r="BF18">
         <v>12040.86306327116</v>
       </c>
-      <c r="AO18">
-        <v>23835.19709993254</v>
-      </c>
-      <c r="AP18">
-        <v>49815.56193885901</v>
-      </c>
-      <c r="AQ18">
-        <v>16605.187312953</v>
-      </c>
-      <c r="AR18">
+      <c r="BG18">
         <v>28646.05037622416</v>
       </c>
-      <c r="AT18">
+      <c r="BI18">
         <v>0.262406124</v>
       </c>
-      <c r="AU18">
+      <c r="BJ18">
         <v>0.320651872688383</v>
       </c>
-      <c r="AV18">
+      <c r="BK18">
         <v>1657866.903620292</v>
       </c>
-      <c r="AW18">
+      <c r="BL18">
         <v>235631.0324364694</v>
       </c>
-      <c r="AX18">
+      <c r="BM18">
         <v>18460443.98251362</v>
       </c>
-      <c r="AY18">
+      <c r="BN18">
         <v>28646.05037622416</v>
       </c>
-      <c r="AZ18">
+      <c r="BO18">
         <v>14671.02297031162</v>
       </c>
-      <c r="BA18">
+      <c r="BP18">
         <v>46926943.68540414</v>
       </c>
-      <c r="BB18">
+      <c r="BQ18">
         <v>26529684.69348722</v>
       </c>
     </row>
-    <row r="19" spans="2:54">
+    <row r="19" spans="2:69">
       <c r="B19">
         <v>0.271795682</v>
       </c>
@@ -3106,112 +3955,157 @@
         <v>47.7091332102</v>
       </c>
       <c r="O19">
+        <v>2.3625</v>
+      </c>
+      <c r="P19">
         <v>347253.3996185156</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>727843.1256004086</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>242614.3752001362</v>
       </c>
-      <c r="R19">
+      <c r="S19">
+        <v>24.14769984956299</v>
+      </c>
+      <c r="T19">
         <v>19138.25951577115</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>1624758.490140988</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>1867372.865341125</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>0.271795682</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
+        <v>113.565</v>
+      </c>
+      <c r="Z19">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA19">
+        <v>998.181448936186</v>
+      </c>
+      <c r="AB19">
+        <v>3.7935</v>
+      </c>
+      <c r="AC19">
         <v>352666.0087705075</v>
       </c>
-      <c r="X19">
+      <c r="AD19">
         <v>737071.9583303607</v>
       </c>
-      <c r="Y19">
+      <c r="AE19">
         <v>245690.6527767869</v>
       </c>
-      <c r="Z19">
+      <c r="AF19">
         <v>245690.6527767869</v>
       </c>
-      <c r="AB19">
+      <c r="AH19">
         <v>0.271795682</v>
       </c>
-      <c r="AC19">
+      <c r="AI19">
+        <v>-5.49664485</v>
+      </c>
+      <c r="AJ19">
+        <v>20</v>
+      </c>
+      <c r="AK19">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL19">
         <v>1926801.178542306</v>
       </c>
-      <c r="AD19">
+      <c r="AM19">
         <v>15645.62556976352</v>
       </c>
-      <c r="AF19">
+      <c r="AO19">
         <v>0.271795682</v>
       </c>
-      <c r="AG19">
+      <c r="AP19">
+        <v>307.4786142219758</v>
+      </c>
+      <c r="AQ19">
+        <v>1.75</v>
+      </c>
+      <c r="AR19">
+        <v>13954143.0967248</v>
+      </c>
+      <c r="AS19">
+        <v>29164159.07215484</v>
+      </c>
+      <c r="AT19">
+        <v>9721386.357384946</v>
+      </c>
+      <c r="AU19">
+        <v>3.8</v>
+      </c>
+      <c r="AV19">
         <v>9522612.68245459</v>
       </c>
-      <c r="AH19">
-        <v>13954143.0967248</v>
-      </c>
-      <c r="AI19">
-        <v>29164159.07215484</v>
-      </c>
-      <c r="AJ19">
-        <v>9721386.357384946</v>
-      </c>
-      <c r="AK19">
+      <c r="AW19">
         <v>19243999.03983954</v>
       </c>
-      <c r="AM19">
+      <c r="AY19">
         <v>0.271795682</v>
       </c>
-      <c r="AN19">
+      <c r="AZ19">
+        <v>506625</v>
+      </c>
+      <c r="BA19">
+        <v>32939.72019268689</v>
+      </c>
+      <c r="BB19">
+        <v>24532.27707696652</v>
+      </c>
+      <c r="BC19">
+        <v>51272.45909086003</v>
+      </c>
+      <c r="BD19">
+        <v>17090.81969695334</v>
+      </c>
+      <c r="BE19">
+        <v>0.035</v>
+      </c>
+      <c r="BF19">
         <v>12600.31538817747</v>
       </c>
-      <c r="AO19">
-        <v>24532.27707696652</v>
-      </c>
-      <c r="AP19">
-        <v>51272.45909086003</v>
-      </c>
-      <c r="AQ19">
-        <v>17090.81969695334</v>
-      </c>
-      <c r="AR19">
+      <c r="BG19">
         <v>29691.13508513081</v>
       </c>
-      <c r="AT19">
+      <c r="BI19">
         <v>0.271795682</v>
       </c>
-      <c r="AU19">
+      <c r="BJ19">
         <v>0.2959615183208717</v>
       </c>
-      <c r="AV19">
+      <c r="BK19">
         <v>1867372.865341125</v>
       </c>
-      <c r="AW19">
+      <c r="BL19">
         <v>245690.6527767869</v>
       </c>
-      <c r="AX19">
+      <c r="BM19">
         <v>19243999.03983954</v>
       </c>
-      <c r="AY19">
+      <c r="BN19">
         <v>29691.13508513081</v>
       </c>
-      <c r="AZ19">
+      <c r="BO19">
         <v>15645.62556976352</v>
       </c>
-      <c r="BA19">
+      <c r="BP19">
         <v>44268805.49190558</v>
       </c>
-      <c r="BB19">
+      <c r="BQ19">
         <v>22866406.17329323</v>
       </c>
     </row>
-    <row r="20" spans="2:54">
+    <row r="20" spans="2:69">
       <c r="B20">
         <v>0.281320809</v>
       </c>
@@ -3249,112 +4143,157 @@
         <v>49.7434828097</v>
       </c>
       <c r="O20">
+        <v>2.3625</v>
+      </c>
+      <c r="P20">
         <v>375424.020818999</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>786888.7476366221</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>262296.2492122073</v>
       </c>
-      <c r="R20">
+      <c r="S20">
+        <v>27.37031263348839</v>
+      </c>
+      <c r="T20">
         <v>21692.34127767123</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>1841589.389718964</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>2103885.638931171</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>0.281320809</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
+        <v>113.565</v>
+      </c>
+      <c r="Z20">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA20">
+        <v>1065.504562758046</v>
+      </c>
+      <c r="AB20">
+        <v>3.7935</v>
+      </c>
+      <c r="AC20">
         <v>367949.6426580076</v>
       </c>
-      <c r="X20">
+      <c r="AD20">
         <v>769014.7531552358</v>
       </c>
-      <c r="Y20">
+      <c r="AE20">
         <v>256338.2510517453</v>
       </c>
-      <c r="Z20">
+      <c r="AF20">
         <v>256338.2510517453</v>
       </c>
-      <c r="AB20">
+      <c r="AH20">
         <v>0.281320809</v>
       </c>
-      <c r="AC20">
+      <c r="AI20">
+        <v>-5.86737028</v>
+      </c>
+      <c r="AJ20">
+        <v>20</v>
+      </c>
+      <c r="AK20">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL20">
         <v>2056755.762644571</v>
       </c>
-      <c r="AD20">
+      <c r="AM20">
         <v>16700.85679267391</v>
       </c>
-      <c r="AF20">
+      <c r="AO20">
         <v>0.281320809</v>
       </c>
-      <c r="AG20">
+      <c r="AP20">
+        <v>322.3565923011638</v>
+      </c>
+      <c r="AQ20">
+        <v>1.75</v>
+      </c>
+      <c r="AR20">
+        <v>14526017.63722682</v>
+      </c>
+      <c r="AS20">
+        <v>30359376.86180405</v>
+      </c>
+      <c r="AT20">
+        <v>10119792.28726801</v>
+      </c>
+      <c r="AU20">
+        <v>3.8</v>
+      </c>
+      <c r="AV20">
         <v>9983383.663567042</v>
       </c>
-      <c r="AH20">
-        <v>14526017.63722682</v>
-      </c>
-      <c r="AI20">
-        <v>30359376.86180405</v>
-      </c>
-      <c r="AJ20">
-        <v>10119792.28726801</v>
-      </c>
-      <c r="AK20">
+      <c r="AW20">
         <v>20103175.95083506</v>
       </c>
-      <c r="AM20">
+      <c r="AY20">
         <v>0.281320809</v>
       </c>
-      <c r="AN20">
+      <c r="AZ20">
+        <v>506625</v>
+      </c>
+      <c r="BA20">
+        <v>34547.77940241212</v>
+      </c>
+      <c r="BB20">
+        <v>25284.58535622705</v>
+      </c>
+      <c r="BC20">
+        <v>52844.78339451454</v>
+      </c>
+      <c r="BD20">
+        <v>17614.92779817151</v>
+      </c>
+      <c r="BE20">
+        <v>0.035</v>
+      </c>
+      <c r="BF20">
         <v>13215.44062563774</v>
       </c>
-      <c r="AO20">
-        <v>25284.58535622705</v>
-      </c>
-      <c r="AP20">
-        <v>52844.78339451454</v>
-      </c>
-      <c r="AQ20">
-        <v>17614.92779817151</v>
-      </c>
-      <c r="AR20">
+      <c r="BG20">
         <v>30830.36842380925</v>
       </c>
-      <c r="AT20">
+      <c r="BI20">
         <v>0.281320809</v>
       </c>
-      <c r="AU20">
+      <c r="BJ20">
         <v>0.2727529046189325</v>
       </c>
-      <c r="AV20">
+      <c r="BK20">
         <v>2103885.638931171</v>
       </c>
-      <c r="AW20">
+      <c r="BL20">
         <v>256338.2510517453</v>
       </c>
-      <c r="AX20">
+      <c r="BM20">
         <v>20103175.95083506</v>
       </c>
-      <c r="AY20">
+      <c r="BN20">
         <v>30830.36842380925</v>
       </c>
-      <c r="AZ20">
+      <c r="BO20">
         <v>16700.85679267391</v>
       </c>
-      <c r="BA20">
+      <c r="BP20">
         <v>41386155.41549755</v>
       </c>
-      <c r="BB20">
+      <c r="BQ20">
         <v>18875224.34946309</v>
       </c>
     </row>
-    <row r="21" spans="2:54">
+    <row r="21" spans="2:69">
       <c r="B21">
         <v>0.291000764</v>
       </c>
@@ -3392,112 +4331,157 @@
         <v>51.8645784401</v>
       </c>
       <c r="O21">
+        <v>2.3625</v>
+      </c>
+      <c r="P21">
         <v>405879.9583404302</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>850724.3926815416</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>283574.7975605138</v>
       </c>
-      <c r="R21">
+      <c r="S21">
+        <v>31.02299672451734</v>
+      </c>
+      <c r="T21">
         <v>24587.27605401623</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>2087357.290002419</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>2370932.087562933</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>0.291000764</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
+        <v>113.565</v>
+      </c>
+      <c r="Z21">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA21">
+        <v>1138.316078903671</v>
+      </c>
+      <c r="AB21">
+        <v>3.7935</v>
+      </c>
+      <c r="AC21">
         <v>384103.528942288</v>
       </c>
-      <c r="X21">
+      <c r="AD21">
         <v>802776.3754893817</v>
       </c>
-      <c r="Y21">
+      <c r="AE21">
         <v>267592.1251631272</v>
       </c>
-      <c r="Z21">
+      <c r="AF21">
         <v>267592.1251631272</v>
       </c>
-      <c r="AB21">
+      <c r="AH21">
         <v>0.291000764</v>
       </c>
-      <c r="AC21">
+      <c r="AI21">
+        <v>-6.26831847</v>
+      </c>
+      <c r="AJ21">
+        <v>20</v>
+      </c>
+      <c r="AK21">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL21">
         <v>2197304.673136105</v>
       </c>
-      <c r="AD21">
+      <c r="AM21">
         <v>17842.11394586517</v>
       </c>
-      <c r="AF21">
+      <c r="AO21">
         <v>0.291000764</v>
       </c>
-      <c r="AG21">
+      <c r="AP21">
+        <v>338.6484707552111</v>
+      </c>
+      <c r="AQ21">
+        <v>1.75</v>
+      </c>
+      <c r="AR21">
+        <v>15147719.18624806</v>
+      </c>
+      <c r="AS21">
+        <v>31658733.09925845</v>
+      </c>
+      <c r="AT21">
+        <v>10552911.03308615</v>
+      </c>
+      <c r="AU21">
+        <v>3.8</v>
+      </c>
+      <c r="AV21">
         <v>10487943.13928889</v>
       </c>
-      <c r="AH21">
-        <v>15147719.18624806</v>
-      </c>
-      <c r="AI21">
-        <v>31658733.09925845</v>
-      </c>
-      <c r="AJ21">
-        <v>10552911.03308615</v>
-      </c>
-      <c r="AK21">
+      <c r="AW21">
         <v>21040854.17237504</v>
       </c>
-      <c r="AM21">
+      <c r="AY21">
         <v>0.291000764</v>
       </c>
-      <c r="AN21">
+      <c r="AZ21">
+        <v>506625</v>
+      </c>
+      <c r="BA21">
+        <v>36307.94722623136</v>
+      </c>
+      <c r="BB21">
+        <v>26092.17220392141</v>
+      </c>
+      <c r="BC21">
+        <v>54532.63990619574</v>
+      </c>
+      <c r="BD21">
+        <v>18177.54663539858</v>
+      </c>
+      <c r="BE21">
+        <v>0.035</v>
+      </c>
+      <c r="BF21">
         <v>13888.75143661324</v>
       </c>
-      <c r="AO21">
-        <v>26092.17220392141</v>
-      </c>
-      <c r="AP21">
-        <v>54532.63990619574</v>
-      </c>
-      <c r="AQ21">
-        <v>18177.54663539858</v>
-      </c>
-      <c r="AR21">
+      <c r="BG21">
         <v>32066.29807201182</v>
       </c>
-      <c r="AT21">
+      <c r="BI21">
         <v>0.291000764</v>
       </c>
-      <c r="AU21">
+      <c r="BJ21">
         <v>0.2510089884370639</v>
       </c>
-      <c r="AV21">
+      <c r="BK21">
         <v>2370932.087562933</v>
       </c>
-      <c r="AW21">
+      <c r="BL21">
         <v>267592.1251631272</v>
       </c>
-      <c r="AX21">
+      <c r="BM21">
         <v>21040854.17237504</v>
       </c>
-      <c r="AY21">
+      <c r="BN21">
         <v>32066.29807201182</v>
       </c>
-      <c r="AZ21">
+      <c r="BO21">
         <v>17842.11394586517</v>
       </c>
-      <c r="BA21">
+      <c r="BP21">
         <v>38263127.74468552</v>
       </c>
-      <c r="BB21">
+      <c r="BQ21">
         <v>14533840.94756654</v>
       </c>
     </row>
-    <row r="22" spans="2:54">
+    <row r="22" spans="2:69">
       <c r="B22">
         <v>0.300894409</v>
       </c>
@@ -3535,112 +4519,157 @@
         <v>54.07611877270001</v>
       </c>
       <c r="O22">
+        <v>2.3625</v>
+      </c>
+      <c r="P22">
         <v>438806.6028091704</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>919738.6394880211</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>306579.546496007</v>
       </c>
-      <c r="R22">
+      <c r="S22">
+        <v>35.16314649302865</v>
+      </c>
+      <c r="T22">
         <v>27868.55175304986</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>2365923.924868295</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>2672503.471364303</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>0.300894409</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
+        <v>113.565</v>
+      </c>
+      <c r="Z22">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA22">
+        <v>1216.884327044924</v>
+      </c>
+      <c r="AB22">
+        <v>3.7935</v>
+      </c>
+      <c r="AC22">
         <v>401134.0006859981</v>
       </c>
-      <c r="X22">
+      <c r="AD22">
         <v>838370.0614337359</v>
       </c>
-      <c r="Y22">
+      <c r="AE22">
         <v>279456.6871445786</v>
       </c>
-      <c r="Z22">
+      <c r="AF22">
         <v>279456.6871445786</v>
       </c>
-      <c r="AB22">
+      <c r="AH22">
         <v>0.300894409</v>
       </c>
-      <c r="AC22">
+      <c r="AI22">
+        <v>-6.70096702</v>
+      </c>
+      <c r="AJ22">
+        <v>20</v>
+      </c>
+      <c r="AK22">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL22">
         <v>2348965.869881356</v>
       </c>
-      <c r="AD22">
+      <c r="AM22">
         <v>19073.60286343661</v>
       </c>
-      <c r="AF22">
+      <c r="AO22">
         <v>0.300894409</v>
       </c>
-      <c r="AG22">
+      <c r="AP22">
+        <v>356.3567018902856</v>
+      </c>
+      <c r="AQ22">
+        <v>1.75</v>
+      </c>
+      <c r="AR22">
+        <v>15818404.8195084</v>
+      </c>
+      <c r="AS22">
+        <v>33060466.07277254</v>
+      </c>
+      <c r="AT22">
+        <v>11020155.35759085</v>
+      </c>
+      <c r="AU22">
+        <v>3.8</v>
+      </c>
+      <c r="AV22">
         <v>11036367.05754215</v>
       </c>
-      <c r="AH22">
-        <v>15818404.8195084</v>
-      </c>
-      <c r="AI22">
-        <v>33060466.07277254</v>
-      </c>
-      <c r="AJ22">
-        <v>11020155.35759085</v>
-      </c>
-      <c r="AK22">
+      <c r="AW22">
         <v>22056522.41513299</v>
       </c>
-      <c r="AM22">
+      <c r="AY22">
         <v>0.300894409</v>
       </c>
-      <c r="AN22">
+      <c r="AZ22">
+        <v>506625</v>
+      </c>
+      <c r="BA22">
+        <v>38220.5204411165</v>
+      </c>
+      <c r="BB22">
+        <v>26952.12777737818</v>
+      </c>
+      <c r="BC22">
+        <v>56329.9470547204</v>
+      </c>
+      <c r="BD22">
+        <v>18776.64901824013</v>
+      </c>
+      <c r="BE22">
+        <v>0.035</v>
+      </c>
+      <c r="BF22">
         <v>14620.36134615594</v>
       </c>
-      <c r="AO22">
-        <v>26952.12777737818</v>
-      </c>
-      <c r="AP22">
-        <v>56329.9470547204</v>
-      </c>
-      <c r="AQ22">
-        <v>18776.64901824013</v>
-      </c>
-      <c r="AR22">
+      <c r="BG22">
         <v>33397.01036439607</v>
       </c>
-      <c r="AT22">
+      <c r="BI22">
         <v>0.300894409</v>
       </c>
-      <c r="AU22">
+      <c r="BJ22">
         <v>0.230709915124061</v>
       </c>
-      <c r="AV22">
+      <c r="BK22">
         <v>2672503.471364303</v>
       </c>
-      <c r="AW22">
+      <c r="BL22">
         <v>279456.6871445786</v>
       </c>
-      <c r="AX22">
+      <c r="BM22">
         <v>22056522.41513299</v>
       </c>
-      <c r="AY22">
+      <c r="BN22">
         <v>33397.01036439607</v>
       </c>
-      <c r="AZ22">
+      <c r="BO22">
         <v>19073.60286343661</v>
       </c>
-      <c r="BA22">
+      <c r="BP22">
         <v>34879899.88809814</v>
       </c>
-      <c r="BB22">
+      <c r="BQ22">
         <v>9818946.701228429</v>
       </c>
     </row>
-    <row r="23" spans="2:54">
+    <row r="23" spans="2:69">
       <c r="B23">
         <v>0.311019907</v>
       </c>
@@ -3678,112 +4707,157 @@
         <v>56.38196095110001</v>
       </c>
       <c r="O23">
+        <v>2.3625</v>
+      </c>
+      <c r="P23">
         <v>474404.3960215925</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>994351.6140612579</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>331450.5380204193</v>
       </c>
-      <c r="R23">
+      <c r="S23">
+        <v>39.85581731799846</v>
+      </c>
+      <c r="T23">
         <v>31587.72801537969</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>2681666.492972338</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>3013117.030992758</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>0.311019907</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
+        <v>113.565</v>
+      </c>
+      <c r="Z23">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA23">
+        <v>1301.540833067669</v>
+      </c>
+      <c r="AB23">
+        <v>3.7935</v>
+      </c>
+      <c r="AC23">
         <v>419058.833773552</v>
       </c>
-      <c r="X23">
+      <c r="AD23">
         <v>875832.9625867237</v>
       </c>
-      <c r="Y23">
+      <c r="AE23">
         <v>291944.3208622412</v>
       </c>
-      <c r="Z23">
+      <c r="AF23">
         <v>291944.3208622412</v>
       </c>
-      <c r="AB23">
+      <c r="AH23">
         <v>0.311019907</v>
       </c>
-      <c r="AC23">
+      <c r="AI23">
+        <v>-7.16714153</v>
+      </c>
+      <c r="AJ23">
+        <v>20</v>
+      </c>
+      <c r="AK23">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL23">
         <v>2512379.301126488</v>
       </c>
-      <c r="AD23">
+      <c r="AM23">
         <v>20400.51992514708</v>
       </c>
-      <c r="AF23">
+      <c r="AO23">
         <v>0.311019907</v>
       </c>
-      <c r="AG23">
+      <c r="AP23">
+        <v>375.5470298270936</v>
+      </c>
+      <c r="AQ23">
+        <v>1.75</v>
+      </c>
+      <c r="AR23">
+        <v>16539606.62834232</v>
+      </c>
+      <c r="AS23">
+        <v>34567777.85323544</v>
+      </c>
+      <c r="AT23">
+        <v>11522592.61774515</v>
+      </c>
+      <c r="AU23">
+        <v>3.8</v>
+      </c>
+      <c r="AV23">
         <v>11630691.51374509</v>
       </c>
-      <c r="AH23">
-        <v>16539606.62834232</v>
-      </c>
-      <c r="AI23">
-        <v>34567777.85323544</v>
-      </c>
-      <c r="AJ23">
-        <v>11522592.61774515</v>
-      </c>
-      <c r="AK23">
+      <c r="AW23">
         <v>23153284.13149023</v>
       </c>
-      <c r="AM23">
+      <c r="AY23">
         <v>0.311019907</v>
       </c>
-      <c r="AN23">
+      <c r="AZ23">
+        <v>506625</v>
+      </c>
+      <c r="BA23">
+        <v>40292.5823367869</v>
+      </c>
+      <c r="BB23">
+        <v>27864.58860688143</v>
+      </c>
+      <c r="BC23">
+        <v>58236.99018838219</v>
+      </c>
+      <c r="BD23">
+        <v>19412.33006279406</v>
+      </c>
+      <c r="BE23">
+        <v>0.035</v>
+      </c>
+      <c r="BF23">
         <v>15412.97990018568</v>
       </c>
-      <c r="AO23">
-        <v>27864.58860688143</v>
-      </c>
-      <c r="AP23">
-        <v>58236.99018838219</v>
-      </c>
-      <c r="AQ23">
-        <v>19412.33006279406</v>
-      </c>
-      <c r="AR23">
+      <c r="BG23">
         <v>34825.30996297974</v>
       </c>
-      <c r="AT23">
+      <c r="BI23">
         <v>0.311019907</v>
       </c>
-      <c r="AU23">
+      <c r="BJ23">
         <v>0.2118139967243667</v>
       </c>
-      <c r="AV23">
+      <c r="BK23">
         <v>3013117.030992758</v>
       </c>
-      <c r="AW23">
+      <c r="BL23">
         <v>291944.3208622412</v>
       </c>
-      <c r="AX23">
+      <c r="BM23">
         <v>23153284.13149023</v>
       </c>
-      <c r="AY23">
+      <c r="BN23">
         <v>34825.30996297974</v>
       </c>
-      <c r="AZ23">
+      <c r="BO23">
         <v>20400.51992514708</v>
       </c>
-      <c r="BA23">
+      <c r="BP23">
         <v>31226762.24650266</v>
       </c>
-      <c r="BB23">
+      <c r="BQ23">
         <v>4713190.933269304</v>
       </c>
     </row>
-    <row r="24" spans="2:54">
+    <row r="24" spans="2:69">
       <c r="B24">
         <v>0.321381633</v>
       </c>
@@ -3821,112 +4895,157 @@
         <v>58.7861255127</v>
       </c>
       <c r="O24">
+        <v>2.3625</v>
+      </c>
+      <c r="P24">
         <v>512890.0237669118</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>1075017.489815447</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>358339.1632718156</v>
       </c>
-      <c r="R24">
+      <c r="S24">
+        <v>45.17474428788823</v>
+      </c>
+      <c r="T24">
         <v>35803.24358536582</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <v>3039546.200215953</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>3397885.363487768</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>0.321381633</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
+        <v>113.565</v>
+      </c>
+      <c r="Z24">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA24">
+        <v>1392.606101655967</v>
+      </c>
+      <c r="AB24">
+        <v>3.7935</v>
+      </c>
+      <c r="AC24">
         <v>437890.8015757807</v>
       </c>
-      <c r="X24">
+      <c r="AD24">
         <v>915191.7752933815</v>
       </c>
-      <c r="Y24">
+      <c r="AE24">
         <v>305063.9250977938</v>
       </c>
-      <c r="Z24">
+      <c r="AF24">
         <v>305063.9250977938</v>
       </c>
-      <c r="AB24">
+      <c r="AH24">
         <v>0.321381633</v>
       </c>
-      <c r="AC24">
+      <c r="AI24">
+        <v>-7.66860691</v>
+      </c>
+      <c r="AJ24">
+        <v>20</v>
+      </c>
+      <c r="AK24">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL24">
         <v>2688163.640764543</v>
       </c>
-      <c r="AD24">
+      <c r="AM24">
         <v>21827.88876300809</v>
       </c>
-      <c r="AF24">
+      <c r="AO24">
         <v>0.321381633</v>
       </c>
-      <c r="AG24">
+      <c r="AP24">
+        <v>396.3074137754424</v>
+      </c>
+      <c r="AQ24">
+        <v>1.75</v>
+      </c>
+      <c r="AR24">
+        <v>17313619.21727559</v>
+      </c>
+      <c r="AS24">
+        <v>36185464.16410598</v>
+      </c>
+      <c r="AT24">
+        <v>12061821.38803533</v>
+      </c>
+      <c r="AU24">
+        <v>3.8</v>
+      </c>
+      <c r="AV24">
         <v>12273640.60462545</v>
       </c>
-      <c r="AH24">
-        <v>17313619.21727559</v>
-      </c>
-      <c r="AI24">
-        <v>36185464.16410598</v>
-      </c>
-      <c r="AJ24">
-        <v>12061821.38803533</v>
-      </c>
-      <c r="AK24">
+      <c r="AW24">
         <v>24335461.99266078</v>
       </c>
-      <c r="AM24">
+      <c r="AY24">
         <v>0.321381633</v>
       </c>
-      <c r="AN24">
+      <c r="AZ24">
+        <v>506625</v>
+      </c>
+      <c r="BA24">
+        <v>42533.57163526971</v>
+      </c>
+      <c r="BB24">
+        <v>28830.55627052619</v>
+      </c>
+      <c r="BC24">
+        <v>60255.86260539973</v>
+      </c>
+      <c r="BD24">
+        <v>20085.28753513324</v>
+      </c>
+      <c r="BE24">
+        <v>0.035</v>
+      </c>
+      <c r="BF24">
         <v>16270.21765986413</v>
       </c>
-      <c r="AO24">
-        <v>28830.55627052619</v>
-      </c>
-      <c r="AP24">
-        <v>60255.86260539973</v>
-      </c>
-      <c r="AQ24">
-        <v>20085.28753513324</v>
-      </c>
-      <c r="AR24">
+      <c r="BG24">
         <v>36355.50519499737</v>
       </c>
-      <c r="AT24">
+      <c r="BI24">
         <v>0.321381633</v>
       </c>
-      <c r="AU24">
+      <c r="BJ24">
         <v>0.1942706318477221</v>
       </c>
-      <c r="AV24">
+      <c r="BK24">
         <v>3397885.363487768</v>
       </c>
-      <c r="AW24">
+      <c r="BL24">
         <v>305063.9250977938</v>
       </c>
-      <c r="AX24">
+      <c r="BM24">
         <v>24335461.99266078</v>
       </c>
-      <c r="AY24">
+      <c r="BN24">
         <v>36355.50519499737</v>
       </c>
-      <c r="AZ24">
+      <c r="BO24">
         <v>21827.88876300809</v>
       </c>
-      <c r="BA24">
+      <c r="BP24">
         <v>27286739.91671784</v>
       </c>
-      <c r="BB24">
+      <c r="BQ24">
         <v>-809854.758486505</v>
       </c>
     </row>
-    <row r="25" spans="2:54">
+    <row r="25" spans="2:69">
       <c r="B25">
         <v>0.331920816</v>
       </c>
@@ -3964,112 +5083,157 @@
         <v>61.2928052474</v>
       </c>
       <c r="O25">
+        <v>2.3625</v>
+      </c>
+      <c r="P25">
         <v>554497.7630448255</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>1162227.311341954</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>387409.1037806515</v>
       </c>
-      <c r="R25">
+      <c r="S25">
+        <v>51.2035044686224</v>
+      </c>
+      <c r="T25">
         <v>40581.33746660669</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>3445186.462008797</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>3832595.565789449</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>0.331920816</v>
       </c>
-      <c r="W25">
+      <c r="Y25">
+        <v>113.565</v>
+      </c>
+      <c r="Z25">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA25">
+        <v>1490.643249212216</v>
+      </c>
+      <c r="AB25">
+        <v>3.7935</v>
+      </c>
+      <c r="AC25">
         <v>457688.8663092969</v>
       </c>
-      <c r="X25">
+      <c r="AD25">
         <v>956569.7305864305</v>
       </c>
-      <c r="Y25">
+      <c r="AE25">
         <v>318856.5768621435</v>
       </c>
-      <c r="Z25">
+      <c r="AF25">
         <v>318856.5768621435</v>
       </c>
-      <c r="AB25">
+      <c r="AH25">
         <v>0.331920816</v>
       </c>
-      <c r="AC25">
+      <c r="AI25">
+        <v>-8.20846405</v>
+      </c>
+      <c r="AJ25">
+        <v>20</v>
+      </c>
+      <c r="AK25">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL25">
         <v>2877405.878890311</v>
       </c>
-      <c r="AD25">
+      <c r="AM25">
         <v>23364.53573658932</v>
       </c>
-      <c r="AF25">
+      <c r="AO25">
         <v>0.331920816</v>
       </c>
-      <c r="AG25">
+      <c r="AP25">
+        <v>418.8469395361552</v>
+      </c>
+      <c r="AQ25">
+        <v>1.75</v>
+      </c>
+      <c r="AR25">
+        <v>18147112.80756989</v>
+      </c>
+      <c r="AS25">
+        <v>37927465.76782107</v>
+      </c>
+      <c r="AT25">
+        <v>12642488.58927369</v>
+      </c>
+      <c r="AU25">
+        <v>3.8</v>
+      </c>
+      <c r="AV25">
         <v>12971689.71743472</v>
       </c>
-      <c r="AH25">
-        <v>18147112.80756989</v>
-      </c>
-      <c r="AI25">
-        <v>37927465.76782107</v>
-      </c>
-      <c r="AJ25">
-        <v>12642488.58927369</v>
-      </c>
-      <c r="AK25">
+      <c r="AW25">
         <v>25614178.30670842</v>
       </c>
-      <c r="AM25">
+      <c r="AY25">
         <v>0.331920816</v>
       </c>
-      <c r="AN25">
+      <c r="AZ25">
+        <v>506625</v>
+      </c>
+      <c r="BA25">
+        <v>44965.89973644743</v>
+      </c>
+      <c r="BB25">
+        <v>29856.23521328087</v>
+      </c>
+      <c r="BC25">
+        <v>62399.53159575701</v>
+      </c>
+      <c r="BD25">
+        <v>20799.84386525233</v>
+      </c>
+      <c r="BE25">
+        <v>0.035</v>
+      </c>
+      <c r="BF25">
         <v>17200.64757921635</v>
       </c>
-      <c r="AO25">
-        <v>29856.23521328087</v>
-      </c>
-      <c r="AP25">
-        <v>62399.53159575701</v>
-      </c>
-      <c r="AQ25">
-        <v>20799.84386525233</v>
-      </c>
-      <c r="AR25">
+      <c r="BG25">
         <v>38000.49144446869</v>
       </c>
-      <c r="AT25">
+      <c r="BI25">
         <v>0.331920816</v>
       </c>
-      <c r="AU25">
+      <c r="BJ25">
         <v>0.1780054954801032</v>
       </c>
-      <c r="AV25">
+      <c r="BK25">
         <v>3832595.565789449</v>
       </c>
-      <c r="AW25">
+      <c r="BL25">
         <v>318856.5768621435</v>
       </c>
-      <c r="AX25">
+      <c r="BM25">
         <v>25614178.30670842</v>
       </c>
-      <c r="AY25">
+      <c r="BN25">
         <v>38000.49144446869</v>
       </c>
-      <c r="AZ25">
+      <c r="BO25">
         <v>23364.53573658932</v>
       </c>
-      <c r="BA25">
+      <c r="BP25">
         <v>23036350.64317182</v>
       </c>
-      <c r="BB25">
+      <c r="BQ25">
         <v>-6790644.83336925</v>
       </c>
     </row>
-    <row r="26" spans="2:54">
+    <row r="26" spans="2:69">
       <c r="B26">
         <v>0.342676745</v>
       </c>
@@ -4107,112 +5271,157 @@
         <v>63.9063717596</v>
       </c>
       <c r="O26">
+        <v>2.3625</v>
+      </c>
+      <c r="P26">
         <v>599480.8973746515</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1256511.96089727</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>418837.3202990899</v>
       </c>
-      <c r="R26">
+      <c r="S26">
+        <v>58.03682887788467</v>
+      </c>
+      <c r="T26">
         <v>45997.08872716749</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>3904961.178400157</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>4323798.498699247</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <v>0.342676745</v>
       </c>
-      <c r="W26">
+      <c r="Y26">
+        <v>113.565</v>
+      </c>
+      <c r="Z26">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA26">
+        <v>1595.942796722506</v>
+      </c>
+      <c r="AB26">
+        <v>3.7935</v>
+      </c>
+      <c r="AC26">
         <v>478452.347866252</v>
       </c>
-      <c r="X26">
+      <c r="AD26">
         <v>999965.4070404667</v>
       </c>
-      <c r="Y26">
+      <c r="AE26">
         <v>333321.8023468222</v>
       </c>
-      <c r="Z26">
+      <c r="AF26">
         <v>333321.8023468222</v>
       </c>
-      <c r="AB26">
+      <c r="AH26">
         <v>0.342676745</v>
       </c>
-      <c r="AC26">
+      <c r="AI26">
+        <v>-8.788312749999999</v>
+      </c>
+      <c r="AJ26">
+        <v>20</v>
+      </c>
+      <c r="AK26">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL26">
         <v>3080666.811518371</v>
       </c>
-      <c r="AD26">
+      <c r="AM26">
         <v>25015.01450952917</v>
       </c>
-      <c r="AF26">
+      <c r="AO26">
         <v>0.342676745</v>
       </c>
-      <c r="AG26">
+      <c r="AP26">
+        <v>443.2161818720272</v>
+      </c>
+      <c r="AQ26">
+        <v>1.75</v>
+      </c>
+      <c r="AR26">
+        <v>19040737.30637361</v>
+      </c>
+      <c r="AS26">
+        <v>39795140.97032084</v>
+      </c>
+      <c r="AT26">
+        <v>13265046.99010695</v>
+      </c>
+      <c r="AU26">
+        <v>3.8</v>
+      </c>
+      <c r="AV26">
         <v>13726405.15257668</v>
       </c>
-      <c r="AH26">
-        <v>19040737.30637361</v>
-      </c>
-      <c r="AI26">
-        <v>39795140.97032084</v>
-      </c>
-      <c r="AJ26">
-        <v>13265046.99010695</v>
-      </c>
-      <c r="AK26">
+      <c r="AW26">
         <v>26991452.14268363</v>
       </c>
-      <c r="AM26">
+      <c r="AY26">
         <v>0.342676745</v>
       </c>
-      <c r="AN26">
+      <c r="AZ26">
+        <v>506625</v>
+      </c>
+      <c r="BA26">
+        <v>47594.97648421211</v>
+      </c>
+      <c r="BB26">
+        <v>30940.22481321085</v>
+      </c>
+      <c r="BC26">
+        <v>64665.06985961068</v>
+      </c>
+      <c r="BD26">
+        <v>21555.02328653689</v>
+      </c>
+      <c r="BE26">
+        <v>0.035</v>
+      </c>
+      <c r="BF26">
         <v>18206.33906681173</v>
       </c>
-      <c r="AO26">
-        <v>30940.22481321085</v>
-      </c>
-      <c r="AP26">
-        <v>64665.06985961068</v>
-      </c>
-      <c r="AQ26">
-        <v>21555.02328653689</v>
-      </c>
-      <c r="AR26">
+      <c r="BG26">
         <v>39761.36235334862</v>
       </c>
-      <c r="AT26">
+      <c r="BI26">
         <v>0.342676745</v>
       </c>
-      <c r="AU26">
+      <c r="BJ26">
         <v>0.1629650791679669</v>
       </c>
-      <c r="AV26">
+      <c r="BK26">
         <v>4323798.498699247</v>
       </c>
-      <c r="AW26">
+      <c r="BL26">
         <v>333321.8023468222</v>
       </c>
-      <c r="AX26">
+      <c r="BM26">
         <v>26991452.14268363</v>
       </c>
-      <c r="AY26">
+      <c r="BN26">
         <v>39761.36235334862</v>
       </c>
-      <c r="AZ26">
+      <c r="BO26">
         <v>25015.01450952917</v>
       </c>
-      <c r="BA26">
+      <c r="BP26">
         <v>18453683.15820176</v>
       </c>
-      <c r="BB26">
+      <c r="BQ26">
         <v>-13259665.66239082</v>
       </c>
     </row>
-    <row r="27" spans="2:54">
+    <row r="27" spans="2:69">
       <c r="B27">
         <v>0.353625924</v>
       </c>
@@ -4250,112 +5459,157 @@
         <v>66.6313823583</v>
       </c>
       <c r="O27">
+        <v>2.3625</v>
+      </c>
+      <c r="P27">
         <v>648113.2454485288</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>1358445.362460116</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>452815.1208200388</v>
       </c>
-      <c r="R27">
+      <c r="S27">
+        <v>65.78208890844482</v>
+      </c>
+      <c r="T27">
         <v>52135.59456438795</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>4426094.746872519</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>4878909.867692558</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>0.353625924</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
+        <v>113.565</v>
+      </c>
+      <c r="Z27">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA27">
+        <v>1708.976226078933</v>
+      </c>
+      <c r="AB27">
+        <v>3.7935</v>
+      </c>
+      <c r="AC27">
         <v>500214.0030915245</v>
       </c>
-      <c r="X27">
+      <c r="AD27">
         <v>1045447.266461286</v>
       </c>
-      <c r="Y27">
+      <c r="AE27">
         <v>348482.4221537621</v>
       </c>
-      <c r="Z27">
+      <c r="AF27">
         <v>348482.4221537621</v>
       </c>
-      <c r="AB27">
+      <c r="AH27">
         <v>0.353625924</v>
       </c>
-      <c r="AC27">
+      <c r="AI27">
+        <v>-9.410749300000001</v>
+      </c>
+      <c r="AJ27">
+        <v>20</v>
+      </c>
+      <c r="AK27">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL27">
         <v>3298856.545590022</v>
       </c>
-      <c r="AD27">
+      <c r="AM27">
         <v>26786.71515019098</v>
       </c>
-      <c r="AF27">
+      <c r="AO27">
         <v>0.353625924</v>
       </c>
-      <c r="AG27">
+      <c r="AP27">
+        <v>469.5833423032304</v>
+      </c>
+      <c r="AQ27">
+        <v>1.75</v>
+      </c>
+      <c r="AR27">
+        <v>19999368.13546561</v>
+      </c>
+      <c r="AS27">
+        <v>41798679.40312312</v>
+      </c>
+      <c r="AT27">
+        <v>13932893.13437437</v>
+      </c>
+      <c r="AU27">
+        <v>3.8</v>
+      </c>
+      <c r="AV27">
         <v>14542996.11113105</v>
       </c>
-      <c r="AH27">
-        <v>19999368.13546561</v>
-      </c>
-      <c r="AI27">
-        <v>41798679.40312312</v>
-      </c>
-      <c r="AJ27">
-        <v>13932893.13437437</v>
-      </c>
-      <c r="AK27">
+      <c r="AW27">
         <v>28475889.24550542</v>
       </c>
-      <c r="AM27">
+      <c r="AY27">
         <v>0.353625924</v>
       </c>
-      <c r="AN27">
+      <c r="AZ27">
+        <v>506625</v>
+      </c>
+      <c r="BA27">
+        <v>50438.8280541861</v>
+      </c>
+      <c r="BB27">
+        <v>32086.13564792418</v>
+      </c>
+      <c r="BC27">
+        <v>67060.02350416152</v>
+      </c>
+      <c r="BD27">
+        <v>22353.34116805384</v>
+      </c>
+      <c r="BE27">
+        <v>0.035</v>
+      </c>
+      <c r="BF27">
         <v>19294.18761225236</v>
       </c>
-      <c r="AO27">
-        <v>32086.13564792418</v>
-      </c>
-      <c r="AP27">
-        <v>67060.02350416152</v>
-      </c>
-      <c r="AQ27">
-        <v>22353.34116805384</v>
-      </c>
-      <c r="AR27">
+      <c r="BG27">
         <v>41647.5287803062</v>
       </c>
-      <c r="AT27">
+      <c r="BI27">
         <v>0.353625924</v>
       </c>
-      <c r="AU27">
+      <c r="BJ27">
         <v>0.1490797320919031</v>
       </c>
-      <c r="AV27">
+      <c r="BK27">
         <v>4878909.867692558</v>
       </c>
-      <c r="AW27">
+      <c r="BL27">
         <v>348482.4221537621</v>
       </c>
-      <c r="AX27">
+      <c r="BM27">
         <v>28475889.24550542</v>
       </c>
-      <c r="AY27">
+      <c r="BN27">
         <v>41647.5287803062</v>
       </c>
-      <c r="AZ27">
+      <c r="BO27">
         <v>26786.71515019098</v>
       </c>
-      <c r="BA27">
+      <c r="BP27">
         <v>13517917.68579533</v>
       </c>
-      <c r="BB27">
+      <c r="BQ27">
         <v>-20253798.09348691</v>
       </c>
     </row>
-    <row r="28" spans="2:54">
+    <row r="28" spans="2:69">
       <c r="B28">
         <v>0.364806585</v>
       </c>
@@ -4393,112 +5647,157 @@
         <v>69.4725892439</v>
       </c>
       <c r="O28">
+        <v>2.3625</v>
+      </c>
+      <c r="P28">
         <v>700690.8490767608</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>1468648.019664891</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>489549.3398882969</v>
       </c>
-      <c r="R28">
+      <c r="S28">
+        <v>74.56098663266822</v>
+      </c>
+      <c r="T28">
         <v>59093.3099557212</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>5016775.793115915</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>5506325.133004212</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>0.364806585</v>
       </c>
-      <c r="W28">
+      <c r="Y28">
+        <v>113.565</v>
+      </c>
+      <c r="Z28">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA28">
+        <v>1829.947290592155</v>
+      </c>
+      <c r="AB28">
+        <v>3.7935</v>
+      </c>
+      <c r="AC28">
         <v>522952.8195632301</v>
       </c>
-      <c r="X28">
+      <c r="AD28">
         <v>1092971.392887151</v>
       </c>
-      <c r="Y28">
+      <c r="AE28">
         <v>364323.7976290503</v>
       </c>
-      <c r="Z28">
+      <c r="AF28">
         <v>364323.7976290503</v>
       </c>
-      <c r="AB28">
+      <c r="AH28">
         <v>0.364806585</v>
       </c>
-      <c r="AC28">
+      <c r="AI28">
+        <v>-10.0768957</v>
+      </c>
+      <c r="AJ28">
+        <v>20</v>
+      </c>
+      <c r="AK28">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL28">
         <v>3532368.388473906</v>
       </c>
-      <c r="AD28">
+      <c r="AM28">
         <v>28682.83131440811</v>
       </c>
-      <c r="AF28">
+      <c r="AO28">
         <v>0.364806585</v>
       </c>
-      <c r="AG28">
+      <c r="AP28">
+        <v>498.003567862304</v>
+      </c>
+      <c r="AQ28">
+        <v>1.75</v>
+      </c>
+      <c r="AR28">
+        <v>21023648.19322283</v>
+      </c>
+      <c r="AS28">
+        <v>43939424.72383571</v>
+      </c>
+      <c r="AT28">
+        <v>14646474.90794523</v>
+      </c>
+      <c r="AU28">
+        <v>3.8</v>
+      </c>
+      <c r="AV28">
         <v>15423170.49669555</v>
       </c>
-      <c r="AH28">
-        <v>21023648.19322283</v>
-      </c>
-      <c r="AI28">
-        <v>43939424.72383571</v>
-      </c>
-      <c r="AJ28">
-        <v>14646474.90794523</v>
-      </c>
-      <c r="AK28">
+      <c r="AW28">
         <v>30069645.40464079</v>
       </c>
-      <c r="AM28">
+      <c r="AY28">
         <v>0.364806585</v>
       </c>
-      <c r="AN28">
+      <c r="AZ28">
+        <v>506625</v>
+      </c>
+      <c r="BA28">
+        <v>53503.33435243273</v>
+      </c>
+      <c r="BB28">
+        <v>33292.39081528498</v>
+      </c>
+      <c r="BC28">
+        <v>69581.09680394561</v>
+      </c>
+      <c r="BD28">
+        <v>23193.69893464854</v>
+      </c>
+      <c r="BE28">
+        <v>0.035</v>
+      </c>
+      <c r="BF28">
         <v>20466.44243533785</v>
       </c>
-      <c r="AO28">
-        <v>33292.39081528498</v>
-      </c>
-      <c r="AP28">
-        <v>69581.09680394561</v>
-      </c>
-      <c r="AQ28">
-        <v>23193.69893464854</v>
-      </c>
-      <c r="AR28">
+      <c r="BG28">
         <v>43660.14136998639</v>
       </c>
-      <c r="AT28">
+      <c r="BI28">
         <v>0.364806585</v>
       </c>
-      <c r="AU28">
+      <c r="BJ28">
         <v>0.1362918398874964</v>
       </c>
-      <c r="AV28">
+      <c r="BK28">
         <v>5506325.133004212</v>
       </c>
-      <c r="AW28">
+      <c r="BL28">
         <v>364323.7976290503</v>
       </c>
-      <c r="AX28">
+      <c r="BM28">
         <v>30069645.40464079</v>
       </c>
-      <c r="AY28">
+      <c r="BN28">
         <v>43660.14136998639</v>
       </c>
-      <c r="AZ28">
+      <c r="BO28">
         <v>28682.83131440811</v>
       </c>
-      <c r="BA28">
+      <c r="BP28">
         <v>8215638.485080763</v>
       </c>
-      <c r="BB28">
+      <c r="BQ28">
         <v>-27796998.82287768</v>
       </c>
     </row>
-    <row r="29" spans="2:54">
+    <row r="29" spans="2:69">
       <c r="B29">
         <v>0.376222775</v>
       </c>
@@ -4536,112 +5835,157 @@
         <v>72.4349470545</v>
       </c>
       <c r="O29">
+        <v>2.3625</v>
+      </c>
+      <c r="P29">
         <v>757533.7626029603</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>1587790.766415805</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>529263.5888052683</v>
       </c>
-      <c r="R29">
+      <c r="S29">
+        <v>84.51146519755251</v>
+      </c>
+      <c r="T29">
         <v>66979.56174232025</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>5686285.710415729</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>6215549.299220998</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <v>0.376222775</v>
       </c>
-      <c r="W29">
+      <c r="Y29">
+        <v>113.565</v>
+      </c>
+      <c r="Z29">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA29">
+        <v>1959.372573912056</v>
+      </c>
+      <c r="AB29">
+        <v>3.7935</v>
+      </c>
+      <c r="AC29">
         <v>546705.5687083481</v>
       </c>
-      <c r="X29">
+      <c r="AD29">
         <v>1142614.638600447</v>
       </c>
-      <c r="Y29">
+      <c r="AE29">
         <v>380871.5462001491</v>
       </c>
-      <c r="Z29">
+      <c r="AF29">
         <v>380871.5462001491</v>
       </c>
-      <c r="AB29">
+      <c r="AH29">
         <v>0.376222775</v>
       </c>
-      <c r="AC29">
+      <c r="AI29">
+        <v>-10.7895966</v>
+      </c>
+      <c r="AJ29">
+        <v>20</v>
+      </c>
+      <c r="AK29">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL29">
         <v>3782199.507555243</v>
       </c>
-      <c r="AD29">
+      <c r="AM29">
         <v>30711.46000134857</v>
       </c>
-      <c r="AF29">
+      <c r="AO29">
         <v>0.376222775</v>
       </c>
-      <c r="AG29">
+      <c r="AP29">
+        <v>528.6227992576215</v>
+      </c>
+      <c r="AQ29">
+        <v>1.75</v>
+      </c>
+      <c r="AR29">
+        <v>22117421.83195259</v>
+      </c>
+      <c r="AS29">
+        <v>46225411.62878091</v>
+      </c>
+      <c r="AT29">
+        <v>15408470.54292697</v>
+      </c>
+      <c r="AU29">
+        <v>3.8</v>
+      </c>
+      <c r="AV29">
         <v>16371448.09300854</v>
       </c>
-      <c r="AH29">
-        <v>22117421.83195259</v>
-      </c>
-      <c r="AI29">
-        <v>46225411.62878091</v>
-      </c>
-      <c r="AJ29">
-        <v>15408470.54292697</v>
-      </c>
-      <c r="AK29">
+      <c r="AW29">
         <v>31779918.63593551</v>
       </c>
-      <c r="AM29">
+      <c r="AY29">
         <v>0.376222775</v>
       </c>
-      <c r="AN29">
+      <c r="AZ29">
+        <v>506625</v>
+      </c>
+      <c r="BA29">
+        <v>56804.07858056518</v>
+      </c>
+      <c r="BB29">
+        <v>34561.11267136525</v>
+      </c>
+      <c r="BC29">
+        <v>72232.72548315336</v>
+      </c>
+      <c r="BD29">
+        <v>24077.57516105112</v>
+      </c>
+      <c r="BE29">
+        <v>0.035</v>
+      </c>
+      <c r="BF29">
         <v>21729.06452340917</v>
       </c>
-      <c r="AO29">
-        <v>34561.11267136525</v>
-      </c>
-      <c r="AP29">
-        <v>72232.72548315336</v>
-      </c>
-      <c r="AQ29">
-        <v>24077.57516105112</v>
-      </c>
-      <c r="AR29">
+      <c r="BG29">
         <v>45806.63968446029</v>
       </c>
-      <c r="AT29">
+      <c r="BI29">
         <v>0.376222775</v>
       </c>
-      <c r="AU29">
+      <c r="BJ29">
         <v>0.1245280823550378</v>
       </c>
-      <c r="AV29">
+      <c r="BK29">
         <v>6215549.299220998</v>
       </c>
-      <c r="AW29">
+      <c r="BL29">
         <v>380871.5462001491</v>
       </c>
-      <c r="AX29">
+      <c r="BM29">
         <v>31779918.63593551</v>
       </c>
-      <c r="AY29">
+      <c r="BN29">
         <v>45806.63968446029</v>
       </c>
-      <c r="AZ29">
+      <c r="BO29">
         <v>30711.46000134857</v>
       </c>
-      <c r="BA29">
+      <c r="BP29">
         <v>2523432.093308464</v>
       </c>
-      <c r="BB29">
+      <c r="BQ29">
         <v>-35929425.487734</v>
       </c>
     </row>
-    <row r="30" spans="2:54">
+    <row r="30" spans="2:69">
       <c r="B30">
         <v>0.387839164</v>
       </c>
@@ -4679,112 +6023,157 @@
         <v>75.52362205270001</v>
       </c>
       <c r="O30">
+        <v>2.3625</v>
+      </c>
+      <c r="P30">
         <v>818988.0115837397</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>1716598.872279518</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>572199.6240931727</v>
       </c>
-      <c r="R30">
+      <c r="S30">
+        <v>95.78987815326741</v>
+      </c>
+      <c r="T30">
         <v>75918.26793037209</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <v>6445144.621172215</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <v>7017344.245265388</v>
       </c>
-      <c r="V30">
+      <c r="X30">
         <v>0.387839164</v>
       </c>
-      <c r="W30">
+      <c r="Y30">
+        <v>113.565</v>
+      </c>
+      <c r="Z30">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA30">
+        <v>2097.618614079842</v>
+      </c>
+      <c r="AB30">
+        <v>3.7935</v>
+      </c>
+      <c r="AC30">
         <v>571478.2088470268</v>
       </c>
-      <c r="X30">
+      <c r="AD30">
         <v>1194389.456490286</v>
       </c>
-      <c r="Y30">
+      <c r="AE30">
         <v>398129.8188300953</v>
       </c>
-      <c r="Z30">
+      <c r="AF30">
         <v>398129.8188300953</v>
       </c>
-      <c r="AB30">
+      <c r="AH30">
         <v>0.387839164</v>
       </c>
-      <c r="AC30">
+      <c r="AI30">
+        <v>-11.5508704</v>
+      </c>
+      <c r="AJ30">
+        <v>20</v>
+      </c>
+      <c r="AK30">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL30">
         <v>4049057.435447997</v>
       </c>
-      <c r="AD30">
+      <c r="AM30">
         <v>32878.34637583773</v>
       </c>
-      <c r="AF30">
+      <c r="AO30">
         <v>0.387839164</v>
       </c>
-      <c r="AG30">
+      <c r="AP30">
+        <v>561.6514359645224</v>
+      </c>
+      <c r="AQ30">
+        <v>1.75</v>
+      </c>
+      <c r="AR30">
+        <v>23286667.22451296</v>
+      </c>
+      <c r="AS30">
+        <v>48669134.49923208</v>
+      </c>
+      <c r="AT30">
+        <v>16223044.83307736</v>
+      </c>
+      <c r="AU30">
+        <v>3.8</v>
+      </c>
+      <c r="AV30">
         <v>17394344.97182126</v>
       </c>
-      <c r="AH30">
-        <v>23286667.22451296</v>
-      </c>
-      <c r="AI30">
-        <v>48669134.49923208</v>
-      </c>
-      <c r="AJ30">
-        <v>16223044.83307736</v>
-      </c>
-      <c r="AK30">
+      <c r="AW30">
         <v>33617389.80489862</v>
       </c>
-      <c r="AM30">
+      <c r="AY30">
         <v>0.387839164</v>
       </c>
-      <c r="AN30">
+      <c r="AZ30">
+        <v>506625</v>
+      </c>
+      <c r="BA30">
+        <v>60363.65498044553</v>
+      </c>
+      <c r="BB30">
+        <v>35896.70111773036</v>
+      </c>
+      <c r="BC30">
+        <v>75024.10533605645</v>
+      </c>
+      <c r="BD30">
+        <v>25008.03511201882</v>
+      </c>
+      <c r="BE30">
+        <v>0.035</v>
+      </c>
+      <c r="BF30">
         <v>23090.69677239116</v>
       </c>
-      <c r="AO30">
-        <v>35896.70111773036</v>
-      </c>
-      <c r="AP30">
-        <v>75024.10533605645</v>
-      </c>
-      <c r="AQ30">
-        <v>25008.03511201882</v>
-      </c>
-      <c r="AR30">
+      <c r="BG30">
         <v>48098.73188440998</v>
       </c>
-      <c r="AT30">
+      <c r="BI30">
         <v>0.387839164</v>
       </c>
-      <c r="AU30">
+      <c r="BJ30">
         <v>0.1137231101551136</v>
       </c>
-      <c r="AV30">
+      <c r="BK30">
         <v>7017344.245265388</v>
       </c>
-      <c r="AW30">
+      <c r="BL30">
         <v>398129.8188300953</v>
       </c>
-      <c r="AX30">
+      <c r="BM30">
         <v>33617389.80489862</v>
       </c>
-      <c r="AY30">
+      <c r="BN30">
         <v>48098.73188440998</v>
       </c>
-      <c r="AZ30">
+      <c r="BO30">
         <v>32878.34637583773</v>
       </c>
-      <c r="BA30">
+      <c r="BP30">
         <v>-3573309.175996391</v>
       </c>
-      <c r="BB30">
+      <c r="BQ30">
         <v>-44687150.12325075</v>
       </c>
     </row>
-    <row r="31" spans="2:54">
+    <row r="31" spans="2:69">
       <c r="B31">
         <v>0.399661557</v>
       </c>
@@ -4822,108 +6211,153 @@
         <v>78.744</v>
       </c>
       <c r="O31">
+        <v>2.3625</v>
+      </c>
+      <c r="P31">
         <v>885427.676592182</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>1855856.410137214</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>618618.8033790712</v>
       </c>
-      <c r="R31">
+      <c r="S31">
+        <v>108.5734421080633</v>
+      </c>
+      <c r="T31">
         <v>86049.88154274556</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <v>7305276.401806003</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <v>7923895.205185074</v>
       </c>
-      <c r="V31">
+      <c r="X31">
         <v>0.399661557</v>
       </c>
-      <c r="W31">
+      <c r="Y31">
+        <v>113.565</v>
+      </c>
+      <c r="Z31">
+        <v>521.9361367890235</v>
+      </c>
+      <c r="AA31">
+        <v>2245.170478357637</v>
+      </c>
+      <c r="AB31">
+        <v>3.7935</v>
+      </c>
+      <c r="AC31">
         <v>597295.8420450441</v>
       </c>
-      <c r="X31">
+      <c r="AD31">
         <v>1248348.309874142</v>
       </c>
-      <c r="Y31">
+      <c r="AE31">
         <v>416116.1032913807</v>
       </c>
-      <c r="Z31">
+      <c r="AF31">
         <v>416116.1032913807</v>
       </c>
-      <c r="AB31">
+      <c r="AH31">
         <v>0.399661557</v>
       </c>
-      <c r="AC31">
+      <c r="AI31">
+        <v>-12.3633882</v>
+      </c>
+      <c r="AJ31">
+        <v>20</v>
+      </c>
+      <c r="AK31">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL31">
         <v>4333878.503090125</v>
       </c>
-      <c r="AD31">
+      <c r="AM31">
         <v>35191.09344509181</v>
       </c>
-      <c r="AF31">
+      <c r="AO31">
         <v>0.399661557</v>
       </c>
-      <c r="AG31">
+      <c r="AP31">
+        <v>597.253690709648</v>
+      </c>
+      <c r="AQ31">
+        <v>1.75</v>
+      </c>
+      <c r="AR31">
+        <v>24535533.75749903</v>
+      </c>
+      <c r="AS31">
+        <v>51279265.55317298</v>
+      </c>
+      <c r="AT31">
+        <v>17093088.51772432</v>
+      </c>
+      <c r="AU31">
+        <v>3.8</v>
+      </c>
+      <c r="AV31">
         <v>18496946.8012778</v>
       </c>
-      <c r="AH31">
-        <v>24535533.75749903</v>
-      </c>
-      <c r="AI31">
-        <v>51279265.55317298</v>
-      </c>
-      <c r="AJ31">
-        <v>17093088.51772432</v>
-      </c>
-      <c r="AK31">
+      <c r="AW31">
         <v>35590035.31900212</v>
       </c>
-      <c r="AM31">
+      <c r="AY31">
         <v>0.399661557</v>
       </c>
-      <c r="AN31">
+      <c r="AZ31">
+        <v>506625</v>
+      </c>
+      <c r="BA31">
+        <v>64199.5445175946</v>
+      </c>
+      <c r="BB31">
+        <v>37301.15914719397</v>
+      </c>
+      <c r="BC31">
+        <v>77959.42261763538</v>
+      </c>
+      <c r="BD31">
+        <v>25986.47420587846</v>
+      </c>
+      <c r="BE31">
+        <v>0.035</v>
+      </c>
+      <c r="BF31">
         <v>24558.02611458209</v>
       </c>
-      <c r="AO31">
-        <v>37301.15914719397</v>
-      </c>
-      <c r="AP31">
-        <v>77959.42261763538</v>
-      </c>
-      <c r="AQ31">
-        <v>25986.47420587846</v>
-      </c>
-      <c r="AR31">
+      <c r="BG31">
         <v>50544.50032046055</v>
       </c>
-      <c r="AT31">
+      <c r="BI31">
         <v>0.399661557</v>
       </c>
-      <c r="AU31">
+      <c r="BJ31">
         <v>0.1038085428443974</v>
       </c>
-      <c r="AV31">
+      <c r="BK31">
         <v>7923895.205185074</v>
       </c>
-      <c r="AW31">
+      <c r="BL31">
         <v>416116.1032913807</v>
       </c>
-      <c r="AX31">
+      <c r="BM31">
         <v>35590035.31900212</v>
       </c>
-      <c r="AY31">
+      <c r="BN31">
         <v>50544.50032046055</v>
       </c>
-      <c r="AZ31">
+      <c r="BO31">
         <v>35191.09344509181</v>
       </c>
-      <c r="BA31">
+      <c r="BP31">
         <v>-10111632.50583248</v>
       </c>
-      <c r="BB31">
+      <c r="BQ31">
         <v>-54127414.7270766</v>
       </c>
     </row>
